--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.384921904951824</v>
+        <v>0.3849219049518524</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2421641887720654</v>
+        <v>0.2421641887718522</v>
       </c>
       <c r="E2">
-        <v>0.4507648623989766</v>
+        <v>0.4507648623989837</v>
       </c>
       <c r="F2">
         <v>9.646477511048687</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1331934312304277</v>
+        <v>0.1331934312304242</v>
       </c>
       <c r="I2">
         <v>0.5492340506451399</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.335100536435462</v>
+        <v>0.3351005364356325</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1900723436286995</v>
+        <v>0.1900723436288843</v>
       </c>
       <c r="E3">
-        <v>0.3702114138851726</v>
+        <v>0.370211413885194</v>
       </c>
       <c r="F3">
-        <v>7.841838899573787</v>
+        <v>7.841838899573673</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1545922601786494</v>
+        <v>0.15459226017866</v>
       </c>
       <c r="I3">
-        <v>0.4471268711886225</v>
+        <v>0.4471268711885941</v>
       </c>
       <c r="J3">
-        <v>9.643792151963765</v>
+        <v>9.64379215196368</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3045930069768445</v>
+        <v>0.3045930069767877</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1629469118438607</v>
+        <v>0.1629469118438465</v>
       </c>
       <c r="E4">
-        <v>0.3257636695147497</v>
+        <v>0.3257636695148278</v>
       </c>
       <c r="F4">
-        <v>6.869292635884506</v>
+        <v>6.869292635884534</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1687299104512636</v>
+        <v>0.1687299104512565</v>
       </c>
       <c r="I4">
-        <v>0.3914886542751645</v>
+        <v>0.3914886542751574</v>
       </c>
       <c r="J4">
-        <v>8.549402388489995</v>
+        <v>8.549402388489966</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2921724383071336</v>
+        <v>0.2921724383071762</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1527686749242463</v>
+        <v>0.15276867492463</v>
       </c>
       <c r="E5">
-        <v>0.308548813830285</v>
+        <v>0.3085488138302992</v>
       </c>
       <c r="F5">
-        <v>6.497549713744633</v>
+        <v>6.497549713744604</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1747302213570254</v>
+        <v>0.174730221357029</v>
       </c>
       <c r="I5">
-        <v>0.3700816118740917</v>
+        <v>0.370081611874113</v>
       </c>
       <c r="J5">
-        <v>8.120874256678292</v>
+        <v>8.12087425667832</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2901104593928068</v>
+        <v>0.2901104593930341</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.151123843765788</v>
+        <v>0.1511238437653759</v>
       </c>
       <c r="E6">
-        <v>0.3057365376095547</v>
+        <v>0.3057365376095618</v>
       </c>
       <c r="F6">
         <v>6.437096158662115</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1757406645742812</v>
+        <v>0.1757406645743025</v>
       </c>
       <c r="I6">
-        <v>0.3665922428301016</v>
+        <v>0.3665922428300945</v>
       </c>
       <c r="J6">
-        <v>8.050614262412438</v>
+        <v>8.05061426241241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,25 +608,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1628064577892303</v>
+        <v>0.1628064577898698</v>
       </c>
       <c r="E7">
-        <v>0.3255282439434311</v>
+        <v>0.3255282439434026</v>
       </c>
       <c r="F7">
-        <v>6.864189546649783</v>
+        <v>6.864189546649698</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1688098803023657</v>
+        <v>0.168809880302371</v>
       </c>
       <c r="I7">
-        <v>0.3911953522358544</v>
+        <v>0.391195352235826</v>
       </c>
       <c r="J7">
-        <v>8.543559841374844</v>
+        <v>8.543559841374702</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3677201654285938</v>
+        <v>0.3677201654284517</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2229324914594599</v>
+        <v>0.2229324914594457</v>
       </c>
       <c r="E8">
-        <v>0.4216759235322272</v>
+        <v>0.4216759235322556</v>
       </c>
       <c r="F8">
-        <v>8.988959203372247</v>
+        <v>8.988959203372303</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1403572917727978</v>
+        <v>0.1403572917727942</v>
       </c>
       <c r="I8">
-        <v>0.5121788799819811</v>
+        <v>0.5121788799820024</v>
       </c>
       <c r="J8">
-        <v>10.89010074479862</v>
+        <v>10.89010074479864</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E9">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F9">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I9">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J9">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E10">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F10">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I10">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J10">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E11">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F11">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I11">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J11">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E12">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F12">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I12">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J12">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E13">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F13">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I13">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J13">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E14">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F14">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I14">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J14">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E15">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F15">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I15">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J15">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E16">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F16">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I16">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J16">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E17">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F17">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I17">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J17">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E18">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F18">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I18">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J18">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E19">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F19">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I19">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J19">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E20">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F20">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I20">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J20">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E21">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F21">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I21">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J21">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E22">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F22">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I22">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J22">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E23">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F23">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I23">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J23">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E24">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F24">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I24">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J24">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4929938493806105</v>
+        <v>0.4929938493806532</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4123312547136635</v>
+        <v>0.4123312547137061</v>
       </c>
       <c r="E25">
-        <v>0.6843238928740831</v>
+        <v>0.6843238928741187</v>
       </c>
       <c r="F25">
-        <v>15.12123022915301</v>
+        <v>15.1212302291529</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.09287033486745955</v>
+        <v>0.09287033486749152</v>
       </c>
       <c r="I25">
-        <v>0.8536334640607279</v>
+        <v>0.8536334640607066</v>
       </c>
       <c r="J25">
-        <v>16.92804015582314</v>
+        <v>16.92804015582303</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3849219049518524</v>
+        <v>0.384921904951824</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2421641887718522</v>
+        <v>0.2421641887720654</v>
       </c>
       <c r="E2">
-        <v>0.4507648623989837</v>
+        <v>0.4507648623989766</v>
       </c>
       <c r="F2">
         <v>9.646477511048687</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1331934312304242</v>
+        <v>0.1331934312304277</v>
       </c>
       <c r="I2">
         <v>0.5492340506451399</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3351005364356325</v>
+        <v>0.335100536435462</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1900723436288843</v>
+        <v>0.1900723436286995</v>
       </c>
       <c r="E3">
-        <v>0.370211413885194</v>
+        <v>0.3702114138851726</v>
       </c>
       <c r="F3">
-        <v>7.841838899573673</v>
+        <v>7.841838899573787</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.15459226017866</v>
+        <v>0.1545922601786494</v>
       </c>
       <c r="I3">
-        <v>0.4471268711885941</v>
+        <v>0.4471268711886225</v>
       </c>
       <c r="J3">
-        <v>9.64379215196368</v>
+        <v>9.643792151963765</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3045930069767877</v>
+        <v>0.3045930069768445</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1629469118438465</v>
+        <v>0.1629469118438607</v>
       </c>
       <c r="E4">
-        <v>0.3257636695148278</v>
+        <v>0.3257636695147497</v>
       </c>
       <c r="F4">
-        <v>6.869292635884534</v>
+        <v>6.869292635884506</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1687299104512565</v>
+        <v>0.1687299104512636</v>
       </c>
       <c r="I4">
-        <v>0.3914886542751574</v>
+        <v>0.3914886542751645</v>
       </c>
       <c r="J4">
-        <v>8.549402388489966</v>
+        <v>8.549402388489995</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2921724383071762</v>
+        <v>0.2921724383071336</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.15276867492463</v>
+        <v>0.1527686749242463</v>
       </c>
       <c r="E5">
-        <v>0.3085488138302992</v>
+        <v>0.308548813830285</v>
       </c>
       <c r="F5">
-        <v>6.497549713744604</v>
+        <v>6.497549713744633</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.174730221357029</v>
+        <v>0.1747302213570254</v>
       </c>
       <c r="I5">
-        <v>0.370081611874113</v>
+        <v>0.3700816118740917</v>
       </c>
       <c r="J5">
-        <v>8.12087425667832</v>
+        <v>8.120874256678292</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2901104593930341</v>
+        <v>0.2901104593928068</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1511238437653759</v>
+        <v>0.151123843765788</v>
       </c>
       <c r="E6">
-        <v>0.3057365376095618</v>
+        <v>0.3057365376095547</v>
       </c>
       <c r="F6">
         <v>6.437096158662115</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1757406645743025</v>
+        <v>0.1757406645742812</v>
       </c>
       <c r="I6">
-        <v>0.3665922428300945</v>
+        <v>0.3665922428301016</v>
       </c>
       <c r="J6">
-        <v>8.05061426241241</v>
+        <v>8.050614262412438</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,25 +608,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1628064577898698</v>
+        <v>0.1628064577892303</v>
       </c>
       <c r="E7">
-        <v>0.3255282439434026</v>
+        <v>0.3255282439434311</v>
       </c>
       <c r="F7">
-        <v>6.864189546649698</v>
+        <v>6.864189546649783</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.168809880302371</v>
+        <v>0.1688098803023657</v>
       </c>
       <c r="I7">
-        <v>0.391195352235826</v>
+        <v>0.3911953522358544</v>
       </c>
       <c r="J7">
-        <v>8.543559841374702</v>
+        <v>8.543559841374844</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3677201654284517</v>
+        <v>0.3677201654285938</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2229324914594457</v>
+        <v>0.2229324914594599</v>
       </c>
       <c r="E8">
-        <v>0.4216759235322556</v>
+        <v>0.4216759235322272</v>
       </c>
       <c r="F8">
-        <v>8.988959203372303</v>
+        <v>8.988959203372247</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1403572917727942</v>
+        <v>0.1403572917727978</v>
       </c>
       <c r="I8">
-        <v>0.5121788799820024</v>
+        <v>0.5121788799819811</v>
       </c>
       <c r="J8">
-        <v>10.89010074479864</v>
+        <v>10.89010074479862</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E9">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F9">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I9">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J9">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E10">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F10">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I10">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J10">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E11">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F11">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I11">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J11">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E12">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F12">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I12">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J12">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E13">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F13">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I13">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J13">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E14">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F14">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I14">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J14">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E15">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F15">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I15">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J15">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E16">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F16">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I16">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J16">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E17">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F17">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I17">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J17">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E18">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F18">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I18">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J18">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E19">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F19">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I19">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J19">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E20">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F20">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I20">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J20">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E21">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F21">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I21">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J21">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E22">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F22">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I22">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J22">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E23">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F23">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I23">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J23">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E24">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F24">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I24">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J24">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4929938493806532</v>
+        <v>0.4929938493806105</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4123312547137061</v>
+        <v>0.4123312547136635</v>
       </c>
       <c r="E25">
-        <v>0.6843238928741187</v>
+        <v>0.6843238928740831</v>
       </c>
       <c r="F25">
-        <v>15.1212302291529</v>
+        <v>15.12123022915301</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.09287033486749152</v>
+        <v>0.09287033486745955</v>
       </c>
       <c r="I25">
-        <v>0.8536334640607066</v>
+        <v>0.8536334640607279</v>
       </c>
       <c r="J25">
-        <v>16.92804015582303</v>
+        <v>16.92804015582314</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.384921904951824</v>
+        <v>0.3843330828013762</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2421641887720654</v>
+        <v>0.2335099547589294</v>
       </c>
       <c r="E2">
-        <v>0.4507648623989766</v>
+        <v>0.4455994765510241</v>
       </c>
       <c r="F2">
-        <v>9.646477511048687</v>
+        <v>9.477271094113917</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006186836510341645</v>
       </c>
       <c r="H2">
-        <v>0.1331934312304277</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5492340506451399</v>
+        <v>0.1370346563020455</v>
       </c>
       <c r="J2">
-        <v>11.58499648323729</v>
+        <v>0.5407522011262245</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.41631298508921</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.335100536435462</v>
+        <v>0.3345753501631208</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1900723436286995</v>
+        <v>0.1838953041715143</v>
       </c>
       <c r="E3">
-        <v>0.3702114138851726</v>
+        <v>0.3663606399772803</v>
       </c>
       <c r="F3">
-        <v>7.841838899573787</v>
+        <v>7.724828373104543</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006513932867895563</v>
       </c>
       <c r="H3">
-        <v>0.1545922601786494</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4471268711886225</v>
+        <v>0.1588028848983392</v>
       </c>
       <c r="J3">
-        <v>9.643792151963765</v>
+        <v>0.4408610101393506</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.512180585480763</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3045930069768445</v>
+        <v>0.3041115068888445</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1629469118438607</v>
+        <v>0.1580743877664332</v>
       </c>
       <c r="E4">
-        <v>0.3257636695147497</v>
+        <v>0.3225278918036949</v>
       </c>
       <c r="F4">
-        <v>6.869292635884506</v>
+        <v>6.778922302837401</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006705544510578911</v>
       </c>
       <c r="H4">
-        <v>0.1687299104512636</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3914886542751645</v>
+        <v>0.1731736934510764</v>
       </c>
       <c r="J4">
-        <v>8.549402388489995</v>
+        <v>0.3863005873052288</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.436589565750438</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2921724383071336</v>
+        <v>0.2917096170776716</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1527686749242463</v>
+        <v>0.1483942055745615</v>
       </c>
       <c r="E5">
-        <v>0.308548813830285</v>
+        <v>0.3055334066707189</v>
       </c>
       <c r="F5">
-        <v>6.497549713744633</v>
+        <v>6.417190079834626</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006782254503916181</v>
       </c>
       <c r="H5">
-        <v>0.1747302213570254</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3700816118740917</v>
+        <v>0.179270603935036</v>
       </c>
       <c r="J5">
-        <v>8.120874256678292</v>
+        <v>0.3652883746105431</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.015101405669185</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2901104593928068</v>
+        <v>0.2896507866490623</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.151123843765788</v>
+        <v>0.146830466974663</v>
       </c>
       <c r="E6">
-        <v>0.3057365376095547</v>
+        <v>0.3027562491013569</v>
       </c>
       <c r="F6">
-        <v>6.437096158662115</v>
+        <v>6.358357948478329</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006794930305155663</v>
       </c>
       <c r="H6">
-        <v>0.1757406645742812</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3665922428301016</v>
+        <v>0.1802971845161103</v>
       </c>
       <c r="J6">
-        <v>8.050614262412438</v>
+        <v>0.3618624117873921</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.945980353709189</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3044254636597259</v>
+        <v>0.303944212218596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1628064577892303</v>
+        <v>0.1579407666356332</v>
       </c>
       <c r="E7">
-        <v>0.3255282439434311</v>
+        <v>0.3222955438426638</v>
       </c>
       <c r="F7">
-        <v>6.864189546649783</v>
+        <v>6.77395715802794</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006706583617849508</v>
       </c>
       <c r="H7">
-        <v>0.1688098803023657</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3911953522358544</v>
+        <v>0.1732549596050657</v>
       </c>
       <c r="J7">
-        <v>8.543559841374844</v>
+        <v>0.3860127647163623</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.430844120527496</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3677201654285938</v>
+        <v>0.3671521065381143</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2229324914594599</v>
+        <v>0.2151943237522858</v>
       </c>
       <c r="E8">
-        <v>0.4216759235322272</v>
+        <v>0.4170186282523005</v>
       </c>
       <c r="F8">
-        <v>8.988959203372247</v>
+        <v>8.839292576613019</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006302243928588773</v>
       </c>
       <c r="H8">
-        <v>0.1403572917727978</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5121788799819811</v>
+        <v>0.1443245191472506</v>
       </c>
       <c r="J8">
-        <v>10.89010074479862</v>
+        <v>0.5045417865942809</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.73532975956732</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E9">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F9">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H9">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J9">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E10">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F10">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H10">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J10">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E11">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F11">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H11">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J11">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E12">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F12">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H12">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J12">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E13">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F13">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H13">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J13">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E14">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F14">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H14">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J14">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E15">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F15">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H15">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J15">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E16">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F16">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H16">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J16">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E17">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F17">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H17">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J17">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E18">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F18">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H18">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J18">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E19">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F19">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H19">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J19">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E20">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F20">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H20">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J20">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E21">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F21">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H21">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J21">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E22">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F22">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H22">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J22">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E23">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F23">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H23">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J23">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E24">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F24">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H24">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J24">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4929938493806105</v>
+        <v>0.4923239365801635</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4123312547136635</v>
+        <v>0.3945161959219519</v>
       </c>
       <c r="E25">
-        <v>0.6843238928740831</v>
+        <v>0.672855651527243</v>
       </c>
       <c r="F25">
-        <v>15.12123022915301</v>
+        <v>14.74402366203344</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005349487199570735</v>
       </c>
       <c r="H25">
-        <v>0.09287033486745955</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8536334640607279</v>
+        <v>0.09597769445376159</v>
       </c>
       <c r="J25">
-        <v>16.92804015582314</v>
+        <v>0.8353096417779966</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.60933499870771</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3843330828013762</v>
+        <v>1.263194060837975</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2335099547589294</v>
+        <v>0.3274361902687843</v>
       </c>
       <c r="E2">
-        <v>0.4455994765510241</v>
+        <v>0.733830807204285</v>
       </c>
       <c r="F2">
-        <v>9.477271094113917</v>
+        <v>6.525168684050328</v>
       </c>
       <c r="G2">
-        <v>0.0006186836510341645</v>
+        <v>0.0007573141479471854</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1370346563020455</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5407522011262245</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41631298508921</v>
+        <v>1.85669884653889</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5012802984067122</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3903496557610637</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3345753501631208</v>
+        <v>1.116541244875094</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1838953041715143</v>
+        <v>0.2900910584036183</v>
       </c>
       <c r="E3">
-        <v>0.3663606399772803</v>
+        <v>0.6421107524207983</v>
       </c>
       <c r="F3">
-        <v>7.724828373104543</v>
+        <v>5.687981210766679</v>
       </c>
       <c r="G3">
-        <v>0.0006513932867895563</v>
+        <v>0.00077235154186977</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1588028848983392</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4408610101393506</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.512180585480763</v>
+        <v>1.582974844136714</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4302072612483556</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3400513171105786</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3041115068888445</v>
+        <v>1.029115503861874</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1580743877664332</v>
+        <v>0.268138090286115</v>
       </c>
       <c r="E4">
-        <v>0.3225278918036949</v>
+        <v>0.5877164889754667</v>
       </c>
       <c r="F4">
-        <v>6.778922302837401</v>
+        <v>5.193747586376531</v>
       </c>
       <c r="G4">
-        <v>0.0006705544510578911</v>
+        <v>0.0007817064084140995</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1731736934510764</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3863005873052288</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.436589565750438</v>
+        <v>1.419996874106914</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3879073875741312</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3100817193085561</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2917096170776716</v>
+        <v>0.9940653852412424</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1483942055745615</v>
+        <v>0.2593989090724875</v>
       </c>
       <c r="E5">
-        <v>0.3055334066707189</v>
+        <v>0.5659310599892251</v>
       </c>
       <c r="F5">
-        <v>6.417190079834626</v>
+        <v>4.99654178311178</v>
       </c>
       <c r="G5">
-        <v>0.0006782254503916181</v>
+        <v>0.0007855562655059156</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.179270603935036</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3652883746105431</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.015101405669185</v>
+        <v>1.354631551656936</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3709537592341263</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2980666536697569</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2896507866490623</v>
+        <v>0.9882779560151391</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.146830466974663</v>
+        <v>0.2579592327124658</v>
       </c>
       <c r="E6">
-        <v>0.3027562491013569</v>
+        <v>0.5623339033206065</v>
       </c>
       <c r="F6">
-        <v>6.358357948478329</v>
+        <v>4.964028689955228</v>
       </c>
       <c r="G6">
-        <v>0.0006794930305155663</v>
+        <v>0.0007861979942002192</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1802971845161103</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3618624117873921</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.945980353709189</v>
+        <v>1.343834984173284</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3681543627582187</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2960826512704315</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.303944212218596</v>
+        <v>1.028640572238572</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1579407666356332</v>
+        <v>0.2680194405948555</v>
       </c>
       <c r="E7">
-        <v>0.3222955438426638</v>
+        <v>0.5874212655414865</v>
       </c>
       <c r="F7">
-        <v>6.77395715802794</v>
+        <v>5.191071954125675</v>
       </c>
       <c r="G7">
-        <v>0.0006706583617849508</v>
+        <v>0.0007817581678622447</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1732549596050657</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3860127647163623</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.430844120527496</v>
+        <v>1.419111364708016</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3876776599742868</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3099189183050939</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3671521065381143</v>
+        <v>1.21203151827271</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2151943237522858</v>
+        <v>0.3143315585488864</v>
       </c>
       <c r="E8">
-        <v>0.4170186282523005</v>
+        <v>0.7017394055248474</v>
       </c>
       <c r="F8">
-        <v>8.839292576613019</v>
+        <v>6.231889353049269</v>
       </c>
       <c r="G8">
-        <v>0.0006302243928588773</v>
+        <v>0.0007624783155891385</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1443245191472506</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5045417865942809</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73532975956732</v>
+        <v>1.761112281513689</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4764620532184836</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3727964509251009</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4923239365801635</v>
+        <v>1.596836790697665</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3945161959219519</v>
+        <v>0.4150209772060265</v>
       </c>
       <c r="E9">
-        <v>0.672855651527243</v>
+        <v>0.9469197955934447</v>
       </c>
       <c r="F9">
-        <v>14.74402366203344</v>
+        <v>8.472595259813488</v>
       </c>
       <c r="G9">
-        <v>0.0005349487199570735</v>
+        <v>0.000725254497113847</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16.60933499870771</v>
+        <v>2.484851254660896</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6640712009108114</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5050739454225095</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4923239365801635</v>
+        <v>1.902424178549296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3945161959219519</v>
+        <v>0.4987481167100896</v>
       </c>
       <c r="E10">
-        <v>0.672855651527243</v>
+        <v>1.150316472831065</v>
       </c>
       <c r="F10">
-        <v>14.74402366203344</v>
+        <v>10.31536158820245</v>
       </c>
       <c r="G10">
-        <v>0.0005349487199570735</v>
+        <v>0.0006975886415853912</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>16.60933499870771</v>
+        <v>3.071564685285978</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.8151882917552484</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6107182575381174</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4923239365801635</v>
+        <v>2.048645057060867</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3945161959219519</v>
+        <v>0.5401099938064817</v>
       </c>
       <c r="E11">
-        <v>0.672855651527243</v>
+        <v>1.25126455656256</v>
       </c>
       <c r="F11">
-        <v>14.74402366203344</v>
+        <v>11.21942219462142</v>
       </c>
       <c r="G11">
-        <v>0.0005349487199570735</v>
+        <v>0.0006847258455514284</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>16.60933499870771</v>
+        <v>3.357511828064005</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8883698606299504</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.6615180013039037</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4923239365801635</v>
+        <v>2.105299842250474</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3945161959219519</v>
+        <v>0.5563765633138473</v>
       </c>
       <c r="E12">
-        <v>0.672855651527243</v>
+        <v>1.29110232461403</v>
       </c>
       <c r="F12">
-        <v>14.74402366203344</v>
+        <v>11.57387438650903</v>
       </c>
       <c r="G12">
-        <v>0.0005349487199570735</v>
+        <v>0.0006797912186335964</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.60933499870771</v>
+        <v>3.469358018812557</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9168973039449781</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.6812504764901846</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4923239365801635</v>
+        <v>2.093036423073215</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3945161959219519</v>
+        <v>0.5528438526661432</v>
       </c>
       <c r="E13">
-        <v>0.672855651527243</v>
+        <v>1.282443068981607</v>
       </c>
       <c r="F13">
-        <v>14.74402366203344</v>
+        <v>11.49694751982645</v>
       </c>
       <c r="G13">
-        <v>0.0005349487199570735</v>
+        <v>0.0006808572752314397</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16.60933499870771</v>
+        <v>3.445095426260551</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9107137533021614</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.6769767535262048</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4923239365801635</v>
+        <v>2.053278682388168</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3945161959219519</v>
+        <v>0.541435246918553</v>
       </c>
       <c r="E14">
-        <v>0.672855651527243</v>
+        <v>1.254506977545859</v>
       </c>
       <c r="F14">
-        <v>14.74402366203344</v>
+        <v>11.24832257021336</v>
       </c>
       <c r="G14">
-        <v>0.0005349487199570735</v>
+        <v>0.0006843213119290817</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16.60933499870771</v>
+        <v>3.366636386558156</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8906992885381158</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.6631307832773032</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4923239365801635</v>
+        <v>2.029101647831283</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3945161959219519</v>
+        <v>0.5345304041417478</v>
       </c>
       <c r="E15">
-        <v>0.672855651527243</v>
+        <v>1.237619233875833</v>
       </c>
       <c r="F15">
-        <v>14.74402366203344</v>
+        <v>11.09770101448072</v>
       </c>
       <c r="G15">
-        <v>0.0005349487199570735</v>
+        <v>0.000686433997949789</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.60933499870771</v>
+        <v>3.319071024802639</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.8785521633535041</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.6547177878467068</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4923239365801635</v>
+        <v>1.893033047123424</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3945161959219519</v>
+        <v>0.4961213917796385</v>
       </c>
       <c r="E16">
-        <v>0.672855651527243</v>
+        <v>1.143920072109182</v>
       </c>
       <c r="F16">
-        <v>14.74402366203344</v>
+        <v>10.25781163546324</v>
       </c>
       <c r="G16">
-        <v>0.0005349487199570735</v>
+        <v>0.0006984217889324225</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>16.60933499870771</v>
+        <v>3.053325617656355</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8105089967712331</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6074615923784492</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4923239365801635</v>
+        <v>1.811562194084871</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3945161959219519</v>
+        <v>0.4734802395270776</v>
       </c>
       <c r="E17">
-        <v>0.672855651527243</v>
+        <v>1.088842352597524</v>
       </c>
       <c r="F17">
-        <v>14.74402366203344</v>
+        <v>9.761067483281863</v>
       </c>
       <c r="G17">
-        <v>0.0005349487199570735</v>
+        <v>0.000705689945682146</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>16.60933499870771</v>
+        <v>2.895691136926999</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.7700141490354042</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5792375279629525</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4923239365801635</v>
+        <v>1.765362745340497</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3945161959219519</v>
+        <v>0.4607559906680194</v>
       </c>
       <c r="E18">
-        <v>0.672855651527243</v>
+        <v>1.057925848886249</v>
       </c>
       <c r="F18">
-        <v>14.74402366203344</v>
+        <v>9.481349502513496</v>
       </c>
       <c r="G18">
-        <v>0.0005349487199570735</v>
+        <v>0.0007098460440091071</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.60933499870771</v>
+        <v>2.80675561001965</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.7471272407301228</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5632544266694808</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4923239365801635</v>
+        <v>1.749827303103785</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3945161959219519</v>
+        <v>0.4564955738929655</v>
       </c>
       <c r="E19">
-        <v>0.672855651527243</v>
+        <v>1.047578847006385</v>
       </c>
       <c r="F19">
-        <v>14.74402366203344</v>
+        <v>9.387602956761214</v>
       </c>
       <c r="G19">
-        <v>0.0005349487199570735</v>
+        <v>0.0007112496632938739</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.60933499870771</v>
+        <v>2.776919706475965</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.7394430216665739</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.557883211564743</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4923239365801635</v>
+        <v>1.820164963606061</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3945161959219519</v>
+        <v>0.4758587106576329</v>
       </c>
       <c r="E20">
-        <v>0.672855651527243</v>
+        <v>1.094624031899862</v>
       </c>
       <c r="F20">
-        <v>14.74402366203344</v>
+        <v>9.813309414413055</v>
       </c>
       <c r="G20">
-        <v>0.0005349487199570735</v>
+        <v>0.00070491890930068</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>16.60933499870771</v>
+        <v>2.912287180235921</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7742818909864866</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5822154405006259</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4923239365801635</v>
+        <v>2.064919330369889</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3945161959219519</v>
+        <v>0.5447685825341182</v>
       </c>
       <c r="E21">
-        <v>0.672855651527243</v>
+        <v>1.262664908079685</v>
       </c>
       <c r="F21">
-        <v>14.74402366203344</v>
+        <v>11.32099614055966</v>
       </c>
       <c r="G21">
-        <v>0.0005349487199570735</v>
+        <v>0.0006833057975637694</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>16.60933499870771</v>
+        <v>3.389577094900915</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8965542216367623</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.6671832723436353</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4923239365801635</v>
+        <v>2.232535050161061</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3945161959219519</v>
+        <v>0.5934190069099543</v>
       </c>
       <c r="E22">
-        <v>0.672855651527243</v>
+        <v>1.382174055341466</v>
       </c>
       <c r="F22">
-        <v>14.74402366203344</v>
+        <v>12.37878890217132</v>
       </c>
       <c r="G22">
-        <v>0.0005349487199570735</v>
+        <v>0.0006687916715378075</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>16.60933499870771</v>
+        <v>3.722884167767944</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.9813430028931407</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7256747478395909</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4923239365801635</v>
+        <v>2.142273912730218</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3945161959219519</v>
+        <v>0.567067157334094</v>
       </c>
       <c r="E23">
-        <v>0.672855651527243</v>
+        <v>1.317333241008981</v>
       </c>
       <c r="F23">
-        <v>14.74402366203344</v>
+        <v>11.80649476441505</v>
       </c>
       <c r="G23">
-        <v>0.0005349487199570735</v>
+        <v>0.000676583672469573</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>16.60933499870771</v>
+        <v>3.542689489851853</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.9355698071221354</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6941441028943416</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4923239365801635</v>
+        <v>1.816273678174923</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3945161959219519</v>
+        <v>0.4747825023843575</v>
       </c>
       <c r="E24">
-        <v>0.672855651527243</v>
+        <v>1.092007831782766</v>
       </c>
       <c r="F24">
-        <v>14.74402366203344</v>
+        <v>9.789672751525075</v>
       </c>
       <c r="G24">
-        <v>0.0005349487199570735</v>
+        <v>0.0007052675632836534</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>16.60933499870771</v>
+        <v>2.904778901601546</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7723512298567812</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5808683756932282</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4923239365801635</v>
+        <v>1.489353813871816</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3945161959219519</v>
+        <v>0.3863895607792216</v>
       </c>
       <c r="E25">
-        <v>0.672855651527243</v>
+        <v>0.8774200333024922</v>
       </c>
       <c r="F25">
-        <v>14.74402366203344</v>
+        <v>7.838318355511348</v>
       </c>
       <c r="G25">
-        <v>0.0005349487199570735</v>
+        <v>0.0007353226115975617</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.09597769445376159</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8353096417779966</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.60933499870771</v>
+        <v>2.281357596254693</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6114172961921156</v>
       </c>
       <c r="M25">
+        <v>0.4680571994126481</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.263194060837975</v>
+        <v>3.434063171571836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3274361902687843</v>
+        <v>0.005790763808359856</v>
       </c>
       <c r="E2">
-        <v>0.733830807204285</v>
+        <v>1.567431669290585</v>
       </c>
       <c r="F2">
-        <v>6.525168684050328</v>
+        <v>1.788824380448091</v>
       </c>
       <c r="G2">
-        <v>0.0007573141479471854</v>
+        <v>0.0007158969819684221</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.29355081581588</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.85669884653889</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5012802984067122</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3903496557610637</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.977551973917684</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.116541244875094</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2900910584036183</v>
+        <v>0.004810053280078108</v>
       </c>
       <c r="E3">
-        <v>0.6421107524207983</v>
+        <v>1.336160509687204</v>
       </c>
       <c r="F3">
-        <v>5.687981210766679</v>
+        <v>1.540579415516149</v>
       </c>
       <c r="G3">
-        <v>0.00077235154186977</v>
+        <v>0.0007235385202459787</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.844336852165554</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.582974844136714</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4302072612483556</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3400513171105786</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5.144303722186692</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029115503861874</v>
+        <v>2.712641930439929</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.268138090286115</v>
+        <v>0.004246805412869037</v>
       </c>
       <c r="E4">
-        <v>0.5877164889754667</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>5.193747586376531</v>
+        <v>1.391567920974296</v>
       </c>
       <c r="G4">
-        <v>0.0007817064084140995</v>
+        <v>0.0007283324737500999</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.956724654652447</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.419996874106914</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3879073875741312</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3100817193085561</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.644473965290103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9940653852412424</v>
+        <v>2.601103149140556</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2593989090724875</v>
+        <v>0.004025310140479021</v>
       </c>
       <c r="E5">
-        <v>0.5659310599892251</v>
+        <v>1.143099556680454</v>
       </c>
       <c r="F5">
-        <v>4.99654178311178</v>
+        <v>1.331578396996946</v>
       </c>
       <c r="G5">
-        <v>0.0007855562655059156</v>
+        <v>0.000730313868940828</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.595401611000227</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.354631551656936</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3709537592341263</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2980666536697569</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4.443320970959178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9882779560151391</v>
+        <v>2.582587512584553</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2579592327124658</v>
+        <v>0.003988969621664396</v>
       </c>
       <c r="E6">
-        <v>0.5623339033206065</v>
+        <v>1.133970667797598</v>
       </c>
       <c r="F6">
-        <v>4.964028689955228</v>
+        <v>1.321658118355685</v>
       </c>
       <c r="G6">
-        <v>0.0007861979942002192</v>
+        <v>0.0007306446175805448</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.535422914870139</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.343834984173284</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3681543627582187</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2960826512704315</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4.410060780376682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.028640572238572</v>
+        <v>2.71113728649982</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2680194405948555</v>
+        <v>0.004243787861112125</v>
       </c>
       <c r="E7">
-        <v>0.5874212655414865</v>
+        <v>1.197620022311426</v>
       </c>
       <c r="F7">
-        <v>5.191071954125675</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.0007817581678622447</v>
+        <v>0.0007283590801612075</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.951850372969318</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.419111364708016</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3876776599742868</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3099189183050939</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.641751433936349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.21203151827271</v>
+        <v>3.279600047042436</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3143315585488864</v>
+        <v>0.005443401231021383</v>
       </c>
       <c r="E8">
-        <v>0.7017394055248474</v>
+        <v>1.486702222600158</v>
       </c>
       <c r="F8">
-        <v>6.231889353049269</v>
+        <v>1.702442448580072</v>
       </c>
       <c r="G8">
-        <v>0.0007624783155891385</v>
+        <v>0.0007185119886447069</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.761112281513689</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4764620532184836</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3727964509251009</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5.687526064025633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.596836790697665</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4150209772060265</v>
+        <v>0.008199630958756643</v>
       </c>
       <c r="E9">
-        <v>0.9469197955934447</v>
+        <v>2.096339606710984</v>
       </c>
       <c r="F9">
-        <v>8.472595259813488</v>
+        <v>2.347128541868855</v>
       </c>
       <c r="G9">
-        <v>0.000725254497113847</v>
+        <v>0.0006998995819415466</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.43077138200448</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.484851254660896</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6640712009108114</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5050739454225095</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>7.85416229861795</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.902424178549296</v>
+        <v>5.239709044502092</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4987481167100896</v>
+        <v>0.01063539081228981</v>
       </c>
       <c r="E10">
-        <v>1.150316472831065</v>
+        <v>2.586060833366673</v>
       </c>
       <c r="F10">
-        <v>10.31536158820245</v>
+        <v>2.851605898883435</v>
       </c>
       <c r="G10">
-        <v>0.0006975886415853912</v>
+        <v>0.0006864679269870018</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.13355518509053</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.071564685285978</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8151882917552484</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6107182575381174</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>9.553113749089505</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.048645057060867</v>
+        <v>5.623796921615792</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5401099938064817</v>
+        <v>0.01188174520338237</v>
       </c>
       <c r="E11">
-        <v>1.25126455656256</v>
+        <v>2.822475958476986</v>
       </c>
       <c r="F11">
-        <v>11.21942219462142</v>
+        <v>3.090660193508597</v>
       </c>
       <c r="G11">
-        <v>0.0006847258455514284</v>
+        <v>0.0006803599163876365</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.37337786845427</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.357511828064005</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8883698606299504</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6615180013039037</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.35932114213153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.105299842250474</v>
+        <v>5.769885678609</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5563765633138473</v>
+        <v>0.01237899073032622</v>
       </c>
       <c r="E12">
-        <v>1.29110232461403</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>11.57387438650903</v>
+        <v>3.182852286963396</v>
       </c>
       <c r="G12">
-        <v>0.0006797912186335964</v>
+        <v>0.0006780420884715859</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.84469284874041</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.469358018812557</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9168973039449781</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6812504764901846</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.67043865151464</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.093036423073215</v>
+        <v>5.738392214588544</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5528438526661432</v>
+        <v>0.01227067534360415</v>
       </c>
       <c r="E13">
-        <v>1.282443068981607</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>11.49694751982645</v>
+        <v>3.162917655983051</v>
       </c>
       <c r="G13">
-        <v>0.0006808572752314397</v>
+        <v>0.0006785415835265581</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.74309994097524</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.445095426260551</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9107137533021614</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6769767535262048</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.053278682388168</v>
+        <v>5.63580211524868</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.541435246918553</v>
+        <v>0.01192211160192969</v>
       </c>
       <c r="E14">
-        <v>1.254506977545859</v>
+        <v>2.82999038538928</v>
       </c>
       <c r="F14">
-        <v>11.24832257021336</v>
+        <v>3.098209602540265</v>
       </c>
       <c r="G14">
-        <v>0.0006843213119290817</v>
+        <v>0.0006801693578423061</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.41211466341946</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.366636386558156</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8906992885381158</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6631307832773032</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>10.38479363018217</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.029101647831283</v>
+        <v>5.573050217150239</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5345304041417478</v>
+        <v>0.01171208091435716</v>
       </c>
       <c r="E15">
-        <v>1.237619233875833</v>
+        <v>2.790797357017965</v>
       </c>
       <c r="F15">
-        <v>11.09770101448072</v>
+        <v>3.058800812428132</v>
       </c>
       <c r="G15">
-        <v>0.000686433997949789</v>
+        <v>0.0006811656134803101</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.20962447570037</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.319071024802639</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8785521633535041</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6547177878467068</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>10.25183258971805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.893033047123424</v>
+        <v>5.214691192307157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4961213917796385</v>
+        <v>0.01055715331135865</v>
       </c>
       <c r="E16">
-        <v>1.143920072109182</v>
+        <v>2.57092413298578</v>
       </c>
       <c r="F16">
-        <v>10.25781163546324</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.0006984217889324225</v>
+        <v>0.0006868667236993309</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.05276540083537</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.053325617656355</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8105089967712331</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6074615923784492</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.501180815391081</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.811562194084871</v>
+        <v>4.995863217551744</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4734802395270776</v>
+        <v>0.009887510818481715</v>
       </c>
       <c r="E17">
-        <v>1.088842352597524</v>
+        <v>2.439845517651122</v>
       </c>
       <c r="F17">
-        <v>9.761067483281863</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.000705689945682146</v>
+        <v>0.000690361341654847</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.34593973321427</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.895691136926999</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7700141490354042</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5792375279629525</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.049894410862862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.765362745340497</v>
+        <v>4.870334028616981</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4607559906680194</v>
+        <v>0.00951498039731824</v>
       </c>
       <c r="E18">
-        <v>1.057925848886249</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>9.481349502513496</v>
+        <v>2.626135773823904</v>
       </c>
       <c r="G18">
-        <v>0.0007098460440091071</v>
+        <v>0.0006923719132447215</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.94034052935723</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.80675561001965</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7471272407301228</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5632544266694808</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>8.793393365344173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.749827303103785</v>
+        <v>4.827886082259113</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4564955738929655</v>
+        <v>0.009390873476300854</v>
       </c>
       <c r="E19">
-        <v>1.047578847006385</v>
+        <v>2.34079917854109</v>
       </c>
       <c r="F19">
-        <v>9.387602956761214</v>
+        <v>2.600497178597323</v>
       </c>
       <c r="G19">
-        <v>0.0007112496632938739</v>
+        <v>0.0006930528959440128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.80316478736859</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.776919706475965</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7394430216665739</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.557883211564743</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>8.70704497499878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.820164963606061</v>
+        <v>5.019122345915207</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4758587106576329</v>
+        <v>0.009957453279048067</v>
       </c>
       <c r="E20">
-        <v>1.094624031899862</v>
+        <v>2.453666606034687</v>
       </c>
       <c r="F20">
-        <v>9.813309414413055</v>
+        <v>2.716444424735158</v>
       </c>
       <c r="G20">
-        <v>0.00070491890930068</v>
+        <v>0.000689989309964782</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.4210820678112</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.912287180235921</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7742818909864866</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5822154405006259</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>9.09761035659443</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.064919330369889</v>
+        <v>5.665916848071447</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5447685825341182</v>
+        <v>0.01202375752403384</v>
       </c>
       <c r="E21">
-        <v>1.262664908079685</v>
+        <v>2.848874331676157</v>
       </c>
       <c r="F21">
-        <v>11.32099614055966</v>
+        <v>3.117168067285291</v>
       </c>
       <c r="G21">
-        <v>0.0006833057975637694</v>
+        <v>0.0006796914192125105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.50928075155701</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.389577094900915</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8965542216367623</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6671832723436353</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.232535050161061</v>
+        <v>6.09244724781388</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5934190069099543</v>
+        <v>0.01352510470995227</v>
       </c>
       <c r="E22">
-        <v>1.382174055341466</v>
+        <v>3.12174648462593</v>
       </c>
       <c r="F22">
-        <v>12.37878890217132</v>
+        <v>3.388961998781213</v>
       </c>
       <c r="G22">
-        <v>0.0006687916715378075</v>
+        <v>0.0006729296473793775</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.88483939217679</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.722884167767944</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9813430028931407</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7256747478395909</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.142273912730218</v>
+        <v>5.864408231950733</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.567067157334094</v>
+        <v>0.01270784654407109</v>
       </c>
       <c r="E23">
-        <v>1.317333241008981</v>
+        <v>2.974583373186718</v>
       </c>
       <c r="F23">
-        <v>11.80649476441505</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.000676583672469573</v>
+        <v>0.0006765434037575412</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.14956756317582</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.542689489851853</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9355698071221354</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6941441028943416</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>10.8730831447894</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.816273678174923</v>
+        <v>5.008606037163474</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4747825023843575</v>
+        <v>0.009925793883118317</v>
       </c>
       <c r="E24">
-        <v>1.092007831782766</v>
+        <v>2.447414342894518</v>
       </c>
       <c r="F24">
-        <v>9.789672751525075</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.0007052675632836534</v>
+        <v>0.0006901575004876097</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.38710786282712</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.904778901601546</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7723512298567812</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5808683756932282</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>9.076028865477895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.489353813871816</v>
+        <v>4.097905588846629</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3863895607792216</v>
+        <v>0.007395808202643295</v>
       </c>
       <c r="E25">
-        <v>0.8774200333024922</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>7.838318355511348</v>
+        <v>2.168159383477587</v>
       </c>
       <c r="G25">
-        <v>0.0007353226115975617</v>
+        <v>0.0007048771891824946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.44254217779269</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.281357596254693</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6114172961921156</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4680571994126481</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>7.252194421940487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>1.219803940679071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808359856</v>
+        <v>0.00136281687266937</v>
       </c>
       <c r="E2">
-        <v>1.567431669290585</v>
+        <v>0.4336984297763706</v>
       </c>
       <c r="F2">
-        <v>1.788824380448091</v>
+        <v>0.7160575709075232</v>
       </c>
       <c r="G2">
-        <v>0.0007158969819684221</v>
+        <v>0.002324725457951165</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.29355081581588</v>
+        <v>3.961193417866525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.977551973917684</v>
+        <v>2.355210718842727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>1.069997499266549</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280078108</v>
+        <v>0.001187382742090293</v>
       </c>
       <c r="E3">
-        <v>1.336160509687204</v>
+        <v>0.3778594790115903</v>
       </c>
       <c r="F3">
-        <v>1.540579415516149</v>
+        <v>0.6567163053088905</v>
       </c>
       <c r="G3">
-        <v>0.0007235385202459787</v>
+        <v>0.002329461130050568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.844336852165554</v>
+        <v>3.481483530427994</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.144303722186692</v>
+        <v>2.156718067768907</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439929</v>
+        <v>0.9775436500530645</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412869037</v>
+        <v>0.001080080274057593</v>
       </c>
       <c r="E4">
-        <v>1.19836875584835</v>
+        <v>0.3437100912600357</v>
       </c>
       <c r="F4">
-        <v>1.391567920974296</v>
+        <v>0.6207120828670867</v>
       </c>
       <c r="G4">
-        <v>0.0007283324737500999</v>
+        <v>0.002332519531335734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.956724654652447</v>
+        <v>3.186307868167489</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.644473965290103</v>
+        <v>2.036265997455075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140556</v>
+        <v>0.9397517899408854</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140479021</v>
+        <v>0.001036432189167158</v>
       </c>
       <c r="E5">
-        <v>1.143099556680454</v>
+        <v>0.329825076174572</v>
       </c>
       <c r="F5">
-        <v>1.331578396996946</v>
+        <v>0.6061468742205847</v>
       </c>
       <c r="G5">
-        <v>0.000730313868940828</v>
+        <v>0.002333803886885216</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.595401611000227</v>
+        <v>3.065876933603903</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.443320970959178</v>
+        <v>1.987532592803802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584553</v>
+        <v>0.9334695415156489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621664396</v>
+        <v>0.001029188458627317</v>
       </c>
       <c r="E6">
-        <v>1.133970667797598</v>
+        <v>0.3275212721868144</v>
       </c>
       <c r="F6">
-        <v>1.321658118355685</v>
+        <v>0.6037347334826251</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175805448</v>
+        <v>0.002334019454337199</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.535422914870139</v>
+        <v>3.04587117873993</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.410060780376682</v>
+        <v>1.979461519004303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71113728649982</v>
+        <v>0.9770344427063833</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861112125</v>
+        <v>0.001079491335964633</v>
       </c>
       <c r="E7">
-        <v>1.197620022311426</v>
+        <v>0.3435227109891912</v>
       </c>
       <c r="F7">
-        <v>1.390756064626686</v>
+        <v>0.6205152211821883</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801612075</v>
+        <v>0.002332536698358234</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.951850372969318</v>
+        <v>3.184684259858585</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.641751433936349</v>
+        <v>2.035607345351195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042436</v>
+        <v>1.168250105383493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231021383</v>
+        <v>0.001302225393729373</v>
       </c>
       <c r="E8">
-        <v>1.486702222600158</v>
+        <v>0.4144150822294819</v>
       </c>
       <c r="F8">
-        <v>1.702442448580072</v>
+        <v>0.6955060775010651</v>
       </c>
       <c r="G8">
-        <v>0.0007185119886447069</v>
+        <v>0.002326327130626193</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>3.795928923952232</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.687526064025633</v>
+        <v>2.286471316272696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025615</v>
+        <v>1.539389405566169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958756643</v>
+        <v>0.001743495443395915</v>
       </c>
       <c r="E9">
-        <v>2.096339606710984</v>
+        <v>0.5546583365363915</v>
       </c>
       <c r="F9">
-        <v>2.347128541868855</v>
+        <v>0.8460728912957052</v>
       </c>
       <c r="G9">
-        <v>0.0006998995819415466</v>
+        <v>0.002315339238254839</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.43077138200448</v>
+        <v>4.989014804984947</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.85416229861795</v>
+        <v>2.79001036887513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502092</v>
+        <v>1.809644099351658</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081228981</v>
+        <v>0.002072145766488731</v>
       </c>
       <c r="E10">
-        <v>2.586060833366673</v>
+        <v>0.658652049917535</v>
       </c>
       <c r="F10">
-        <v>2.851605898883435</v>
+        <v>0.9589651656520459</v>
       </c>
       <c r="G10">
-        <v>0.0006864679269870018</v>
+        <v>0.002307982165642218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.13355518509053</v>
+        <v>5.861568061238756</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.553113749089505</v>
+        <v>3.167490004210322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615792</v>
+        <v>1.932050532542917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520338237</v>
+        <v>0.002223006803760086</v>
       </c>
       <c r="E11">
-        <v>2.822475958476986</v>
+        <v>0.7062161564137739</v>
       </c>
       <c r="F11">
-        <v>3.090660193508597</v>
+        <v>1.010845266279489</v>
       </c>
       <c r="G11">
-        <v>0.0006803599163876365</v>
+        <v>0.002304788697644411</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.37337786845427</v>
+        <v>6.25753114434093</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.35932114213153</v>
+        <v>3.340953389518518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609</v>
+        <v>1.978324344473322</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01237899073032622</v>
+        <v>0.002280360919026947</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>0.7242680764979781</v>
       </c>
       <c r="F12">
-        <v>3.182852286963396</v>
+        <v>1.03056856590527</v>
       </c>
       <c r="G12">
-        <v>0.0006780420884715859</v>
+        <v>0.00230360130780261</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.84469284874041</v>
+        <v>6.407322560669854</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.67043865151464</v>
+        <v>3.406898250946483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.738392214588544</v>
+        <v>1.968361989860625</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534360415</v>
+        <v>0.002267998111934233</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.720378418342051</v>
       </c>
       <c r="F13">
-        <v>3.162917655983051</v>
+        <v>1.026317325067765</v>
       </c>
       <c r="G13">
-        <v>0.0006785415835265581</v>
+        <v>0.00230385606152078</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.74309994097524</v>
+        <v>6.375069214559744</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
+        <v>3.392684256368284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.63580211524868</v>
+        <v>1.935859098657602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160192969</v>
+        <v>0.00222772064371668</v>
       </c>
       <c r="E14">
-        <v>2.82999038538928</v>
+        <v>0.7077004683360144</v>
       </c>
       <c r="F14">
-        <v>3.098209602540265</v>
+        <v>1.012466350817789</v>
       </c>
       <c r="G14">
-        <v>0.0006801693578423061</v>
+        <v>0.002304690571907265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.41211466341946</v>
+        <v>6.269857673435979</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.38479363018217</v>
+        <v>3.346373501059304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217150239</v>
+        <v>1.915939811075305</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091435716</v>
+        <v>0.002203079946879072</v>
       </c>
       <c r="E15">
-        <v>2.790797357017965</v>
+        <v>0.6999402271471666</v>
       </c>
       <c r="F15">
-        <v>3.058800812428132</v>
+        <v>1.003992371776604</v>
       </c>
       <c r="G15">
-        <v>0.0006811656134803101</v>
+        <v>0.002305204582768017</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.20962447570037</v>
+        <v>6.205392518134659</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.25183258971805</v>
+        <v>3.318040639829917</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192307157</v>
+        <v>1.801633628443199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331135865</v>
+        <v>0.002062316590961899</v>
       </c>
       <c r="E16">
-        <v>2.57092413298578</v>
+        <v>0.655549089093725</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>0.9555854069586189</v>
       </c>
       <c r="G16">
-        <v>0.0006868667236993309</v>
+        <v>0.002308193939223566</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.05276540083537</v>
+        <v>5.835670441680065</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.501180815391081</v>
+        <v>3.15618949106215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217551744</v>
+        <v>1.731372246120657</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818481715</v>
+        <v>0.001976332213386556</v>
       </c>
       <c r="E17">
-        <v>2.439845517651122</v>
+        <v>0.6283848123191405</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>0.9260251098173171</v>
       </c>
       <c r="G17">
-        <v>0.000690361341654847</v>
+        <v>0.002310066979291825</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.34593973321427</v>
+        <v>5.608601612490133</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.049894410862862</v>
+        <v>3.057351167739682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028616981</v>
+        <v>1.690909632147168</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00951498039731824</v>
+        <v>0.001927002019733948</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.6127846016899383</v>
       </c>
       <c r="F18">
-        <v>2.626135773823904</v>
+        <v>0.9090720897889923</v>
       </c>
       <c r="G18">
-        <v>0.0006923719132447215</v>
+        <v>0.00231115873986465</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.94034052935723</v>
+        <v>5.477907426105048</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.793393365344173</v>
+        <v>3.000665896692624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082259113</v>
+        <v>1.677201143001923</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476300854</v>
+        <v>0.001910320321501402</v>
       </c>
       <c r="E19">
-        <v>2.34079917854109</v>
+        <v>0.6075066487272522</v>
       </c>
       <c r="F19">
-        <v>2.600497178597323</v>
+        <v>0.9033404933890949</v>
       </c>
       <c r="G19">
-        <v>0.0006930528959440128</v>
+        <v>0.002311530874994851</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.80316478736859</v>
+        <v>5.433641513037287</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.70704497499878</v>
+        <v>2.981501180670932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.019122345915207</v>
+        <v>1.738856893519369</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009957453279048067</v>
+        <v>0.001985472159233836</v>
       </c>
       <c r="E20">
-        <v>2.453666606034687</v>
+        <v>0.6312739907922804</v>
       </c>
       <c r="F20">
-        <v>2.716444424735158</v>
+        <v>0.9291667394193155</v>
       </c>
       <c r="G20">
-        <v>0.000689989309964782</v>
+        <v>0.002309866097720437</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.4210820678112</v>
+        <v>5.632782903627003</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.09761035659443</v>
+        <v>3.067855660969485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848071447</v>
+        <v>1.945408141630878</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752403384</v>
+        <v>0.002239544716820419</v>
       </c>
       <c r="E21">
-        <v>2.848874331676157</v>
+        <v>0.7114231643078455</v>
       </c>
       <c r="F21">
-        <v>3.117168067285291</v>
+        <v>1.016532600446681</v>
       </c>
       <c r="G21">
-        <v>0.0006796914192125105</v>
+        <v>0.002304444862530205</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.50928075155701</v>
+        <v>6.300765052729901</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
+        <v>3.359969033151685</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.09244724781388</v>
+        <v>2.079940855283837</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510470995227</v>
+        <v>0.002406930069309254</v>
       </c>
       <c r="E22">
-        <v>3.12174648462593</v>
+        <v>0.7640425772889614</v>
       </c>
       <c r="F22">
-        <v>3.388961998781213</v>
+        <v>1.074083505283141</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473793775</v>
+        <v>0.002301029401395692</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.88483939217679</v>
+        <v>6.736443306619549</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.36640331357137</v>
+        <v>3.552389396738079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231950733</v>
+        <v>2.008181005424092</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01270784654407109</v>
+        <v>0.00231746072000405</v>
       </c>
       <c r="E23">
-        <v>2.974583373186718</v>
+        <v>0.7359357237643849</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>1.043325465387227</v>
       </c>
       <c r="G23">
-        <v>0.0006765434037575412</v>
+        <v>0.002302840664474282</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.14956756317582</v>
+        <v>6.503998686294949</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.8730831447894</v>
+        <v>3.449550766766095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.008606037163474</v>
+        <v>1.735473297350381</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009925793883118317</v>
+        <v>0.001981339670157567</v>
       </c>
       <c r="E24">
-        <v>2.447414342894518</v>
+        <v>0.6299677408469222</v>
       </c>
       <c r="F24">
-        <v>2.710038836878795</v>
+        <v>0.927746279284861</v>
       </c>
       <c r="G24">
-        <v>0.0006901575004876097</v>
+        <v>0.002309956869657329</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.38710786282712</v>
+        <v>5.62185100597145</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.076028865477895</v>
+        <v>3.06310614965065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846629</v>
+        <v>1.439406031740532</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202643295</v>
+        <v>0.00162346534227531</v>
       </c>
       <c r="E25">
-        <v>1.925385879019359</v>
+        <v>0.5165662124021679</v>
       </c>
       <c r="F25">
-        <v>2.168159383477587</v>
+        <v>0.804951376280016</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891824946</v>
+        <v>0.002318185404700003</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.44254217779269</v>
+        <v>4.666914883151151</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.252194421940487</v>
+        <v>2.652501122830984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.219803940679071</v>
+        <v>3.434063171571722</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00136281687266937</v>
+        <v>0.005790763808356303</v>
       </c>
       <c r="E2">
-        <v>0.4336984297763706</v>
+        <v>1.567431669290599</v>
       </c>
       <c r="F2">
-        <v>0.7160575709075232</v>
+        <v>1.788824380448091</v>
       </c>
       <c r="G2">
-        <v>0.002324725457951165</v>
+        <v>0.0007158969820412124</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.961193417866525</v>
+        <v>11.29355081581571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.355210718842727</v>
+        <v>5.977551973917741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.069997499266549</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001187382742090293</v>
+        <v>0.004810053280085214</v>
       </c>
       <c r="E3">
-        <v>0.3778594790115903</v>
+        <v>1.336160509687247</v>
       </c>
       <c r="F3">
-        <v>0.6567163053088905</v>
+        <v>1.540579415516163</v>
       </c>
       <c r="G3">
-        <v>0.002329461130050568</v>
+        <v>0.000723538520274197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.481483530427994</v>
+        <v>9.844336852165611</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.156718067768907</v>
+        <v>5.144303722186692</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9775436500530645</v>
+        <v>2.7126419304401</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001080080274057593</v>
+        <v>0.004246805412787324</v>
       </c>
       <c r="E4">
-        <v>0.3437100912600357</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>0.6207120828670867</v>
+        <v>1.39156792097431</v>
       </c>
       <c r="G4">
-        <v>0.002332519531335734</v>
+        <v>0.000728332473791079</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.186307868167489</v>
+        <v>8.956724654652504</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.036265997455075</v>
+        <v>4.64447396529016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397517899408854</v>
+        <v>2.601103149140158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001036432189167158</v>
+        <v>0.004025310140480798</v>
       </c>
       <c r="E5">
-        <v>0.329825076174572</v>
+        <v>1.14309955668044</v>
       </c>
       <c r="F5">
-        <v>0.6061468742205847</v>
+        <v>1.33157839699696</v>
       </c>
       <c r="G5">
-        <v>0.002333803886885216</v>
+        <v>0.0007303138689011546</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.065876933603903</v>
+        <v>8.595401611000312</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.987532592803802</v>
+        <v>4.443320970959121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9334695415156489</v>
+        <v>2.582587512584666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001029188458627317</v>
+        <v>0.003988969621548932</v>
       </c>
       <c r="E6">
-        <v>0.3275212721868144</v>
+        <v>1.133970667797598</v>
       </c>
       <c r="F6">
-        <v>0.6037347334826251</v>
+        <v>1.3216581183557</v>
       </c>
       <c r="G6">
-        <v>0.002334019454337199</v>
+        <v>0.0007306446175804783</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.04587117873993</v>
+        <v>8.535422914870196</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.979461519004303</v>
+        <v>4.410060780376682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9770344427063833</v>
+        <v>2.711137286499593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001079491335964633</v>
+        <v>0.004243787861199166</v>
       </c>
       <c r="E7">
-        <v>0.3435227109891912</v>
+        <v>1.19762002231144</v>
       </c>
       <c r="F7">
-        <v>0.6205152211821883</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.002332536698358234</v>
+        <v>0.0007283590801211284</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.184684259858585</v>
+        <v>8.951850372969403</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.035607345351195</v>
+        <v>4.641751433936349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.168250105383493</v>
+        <v>3.279600047043175</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001302225393729373</v>
+        <v>0.005443401231106648</v>
       </c>
       <c r="E8">
-        <v>0.4144150822294819</v>
+        <v>1.486702222600101</v>
       </c>
       <c r="F8">
-        <v>0.6955060775010651</v>
+        <v>1.702442448580101</v>
       </c>
       <c r="G8">
-        <v>0.002326327130626193</v>
+        <v>0.0007185119885717572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.795928923952232</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.286471316272696</v>
+        <v>5.687526064025633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539389405566169</v>
+        <v>4.403388309025559</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001743495443395915</v>
+        <v>0.008199630958650062</v>
       </c>
       <c r="E9">
-        <v>0.5546583365363915</v>
+        <v>2.096339606710956</v>
       </c>
       <c r="F9">
-        <v>0.8460728912957052</v>
+        <v>2.347128541868827</v>
       </c>
       <c r="G9">
-        <v>0.002315339238254839</v>
+        <v>0.0006998995818340164</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.989014804984947</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.79001036887513</v>
+        <v>7.854162298617837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.809644099351658</v>
+        <v>5.239709044502376</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002072145766488731</v>
+        <v>0.01063539081218323</v>
       </c>
       <c r="E10">
-        <v>0.658652049917535</v>
+        <v>2.586060833366659</v>
       </c>
       <c r="F10">
-        <v>0.9589651656520459</v>
+        <v>2.851605898883406</v>
       </c>
       <c r="G10">
-        <v>0.002307982165642218</v>
+        <v>0.0006864679270406255</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.861568061238756</v>
+        <v>17.13355518509042</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.167490004210322</v>
+        <v>9.553113749089505</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.932050532542917</v>
+        <v>5.623796921615394</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002223006803760086</v>
+        <v>0.01188174520348895</v>
       </c>
       <c r="E11">
-        <v>0.7062161564137739</v>
+        <v>2.822475958477014</v>
       </c>
       <c r="F11">
-        <v>1.010845266279489</v>
+        <v>3.090660193508597</v>
       </c>
       <c r="G11">
-        <v>0.002304788697644411</v>
+        <v>0.0006803599164443492</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.25753114434093</v>
+        <v>18.37337786845438</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.340953389518518</v>
+        <v>10.35932114213165</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978324344473322</v>
+        <v>5.769885678609853</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002280360919026947</v>
+        <v>0.01237899073032267</v>
       </c>
       <c r="E12">
-        <v>0.7242680764979781</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>1.03056856590527</v>
+        <v>3.182852286963396</v>
       </c>
       <c r="G12">
-        <v>0.00230360130780261</v>
+        <v>0.0006780420885285025</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.407322560669854</v>
+        <v>18.84469284874035</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.406898250946483</v>
+        <v>10.6704386515147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968361989860625</v>
+        <v>5.73839221458843</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002267998111934233</v>
+        <v>0.01227067534359705</v>
       </c>
       <c r="E13">
-        <v>0.720378418342051</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>1.026317325067765</v>
+        <v>3.16291765598308</v>
       </c>
       <c r="G13">
-        <v>0.00230385606152078</v>
+        <v>0.0006785415834695837</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.375069214559744</v>
+        <v>18.74309994097513</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.392684256368284</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935859098657602</v>
+        <v>5.635802115248225</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.00222772064371668</v>
+        <v>0.01192211160203982</v>
       </c>
       <c r="E14">
-        <v>0.7077004683360144</v>
+        <v>2.829990385389266</v>
       </c>
       <c r="F14">
-        <v>1.012466350817789</v>
+        <v>3.098209602540265</v>
       </c>
       <c r="G14">
-        <v>0.002304690571907265</v>
+        <v>0.000680169357895933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.269857673435979</v>
+        <v>18.41211466341952</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.346373501059304</v>
+        <v>10.38479363018212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915939811075305</v>
+        <v>5.573050217149614</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002203079946879072</v>
+        <v>0.01171208091425058</v>
       </c>
       <c r="E15">
-        <v>0.6999402271471666</v>
+        <v>2.790797357017937</v>
       </c>
       <c r="F15">
-        <v>1.003992371776604</v>
+        <v>3.058800812428103</v>
       </c>
       <c r="G15">
-        <v>0.002305204582768017</v>
+        <v>0.0006811656135376502</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.205392518134659</v>
+        <v>18.20962447570048</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.318040639829917</v>
+        <v>10.25183258971805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.801633628443199</v>
+        <v>5.214691192307384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002062316590961899</v>
+        <v>0.01055715331146345</v>
       </c>
       <c r="E16">
-        <v>0.655549089093725</v>
+        <v>2.57092413298578</v>
       </c>
       <c r="F16">
-        <v>0.9555854069586189</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.002308193939223566</v>
+        <v>0.0006868667237534292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.835670441680065</v>
+        <v>17.0527654008352</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.15618949106215</v>
+        <v>9.501180815391137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731372246120657</v>
+        <v>4.995863217551403</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001976332213386556</v>
+        <v>0.009887510818483491</v>
       </c>
       <c r="E17">
-        <v>0.6283848123191405</v>
+        <v>2.43984551765115</v>
       </c>
       <c r="F17">
-        <v>0.9260251098173171</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.002310066979291825</v>
+        <v>0.0006903613416013465</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.608601612490133</v>
+        <v>16.34593973321421</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.057351167739682</v>
+        <v>9.049894410862862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690909632147168</v>
+        <v>4.870334028616981</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001927002019733948</v>
+        <v>0.009514980397314687</v>
       </c>
       <c r="E18">
-        <v>0.6127846016899383</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>0.9090720897889923</v>
+        <v>2.626135773823876</v>
       </c>
       <c r="G18">
-        <v>0.00231115873986465</v>
+        <v>0.0006923719131902085</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.477907426105048</v>
+        <v>15.94034052935723</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.000665896692624</v>
+        <v>8.793393365344173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.677201143001923</v>
+        <v>4.827886082259226</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001910320321501402</v>
+        <v>0.009390873476403883</v>
       </c>
       <c r="E19">
-        <v>0.6075066487272522</v>
+        <v>2.34079917854109</v>
       </c>
       <c r="F19">
-        <v>0.9033404933890949</v>
+        <v>2.600497178597308</v>
       </c>
       <c r="G19">
-        <v>0.002311530874994851</v>
+        <v>0.0006930528958905002</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.433641513037287</v>
+        <v>15.80316478736864</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.981501180670932</v>
+        <v>8.707044974998837</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.738856893519369</v>
+        <v>5.01912234591407</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001985472159233836</v>
+        <v>0.0099574532787301</v>
       </c>
       <c r="E20">
-        <v>0.6312739907922804</v>
+        <v>2.453666606034659</v>
       </c>
       <c r="F20">
-        <v>0.9291667394193155</v>
+        <v>2.71644442473513</v>
       </c>
       <c r="G20">
-        <v>0.002309866097720437</v>
+        <v>0.000689989309912319</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.632782903627003</v>
+        <v>16.42108206781103</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.067855660969485</v>
+        <v>9.097610356594373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945408141630878</v>
+        <v>5.665916848072868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002239544716820419</v>
+        <v>0.01202375752425056</v>
       </c>
       <c r="E21">
-        <v>0.7114231643078455</v>
+        <v>2.848874331676171</v>
       </c>
       <c r="F21">
-        <v>1.016532600446681</v>
+        <v>3.117168067285291</v>
       </c>
       <c r="G21">
-        <v>0.002304444862530205</v>
+        <v>0.0006796914192121364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.300765052729901</v>
+        <v>18.50928075155713</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.359969033151685</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.079940855283837</v>
+        <v>6.092447247813993</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002406930069309254</v>
+        <v>0.01352510471006596</v>
       </c>
       <c r="E22">
-        <v>0.7640425772889614</v>
+        <v>3.121746484625959</v>
       </c>
       <c r="F22">
-        <v>1.074083505283141</v>
+        <v>3.388961998781213</v>
       </c>
       <c r="G22">
-        <v>0.002301029401395692</v>
+        <v>0.0006729296473788289</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.736443306619549</v>
+        <v>19.8848393921765</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.552389396738079</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.008181005424092</v>
+        <v>5.864408231949994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00231746072000405</v>
+        <v>0.0127078465439574</v>
       </c>
       <c r="E23">
-        <v>0.7359357237643849</v>
+        <v>2.974583373186761</v>
       </c>
       <c r="F23">
-        <v>1.043325465387227</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.002302840664474282</v>
+        <v>0.0006765434037532156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.503998686294949</v>
+        <v>19.14956756317599</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.449550766766095</v>
+        <v>10.87308314478946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735473297350381</v>
+        <v>5.008606037163418</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001981339670157567</v>
+        <v>0.009925793883327927</v>
       </c>
       <c r="E24">
-        <v>0.6299677408469222</v>
+        <v>2.447414342894504</v>
       </c>
       <c r="F24">
-        <v>0.927746279284861</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.002309956869657329</v>
+        <v>0.0006901575005401294</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.62185100597145</v>
+        <v>16.38710786282718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.06310614965065</v>
+        <v>9.076028865477952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.439406031740532</v>
+        <v>4.097905588846857</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00162346534227531</v>
+        <v>0.007395808202632637</v>
       </c>
       <c r="E25">
-        <v>0.5165662124021679</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>0.804951376280016</v>
+        <v>2.168159383477573</v>
       </c>
       <c r="G25">
-        <v>0.002318185404700003</v>
+        <v>0.0007048771891826179</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.666914883151151</v>
+        <v>13.44254217779257</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.652501122830984</v>
+        <v>7.25219442194043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571722</v>
+        <v>0.5649482706701576</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808356303</v>
+        <v>0.04231859316634967</v>
       </c>
       <c r="E2">
-        <v>1.567431669290599</v>
+        <v>0.1216163175008145</v>
       </c>
       <c r="F2">
-        <v>1.788824380448091</v>
+        <v>0.905156016366476</v>
       </c>
       <c r="G2">
-        <v>0.0007158969820412124</v>
+        <v>0.8350813386607143</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01362616774597694</v>
       </c>
       <c r="I2">
-        <v>11.29355081581571</v>
+        <v>0.02848497516972026</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5642916096350206</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6661542156893887</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.576244686618509</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2318760473043397</v>
       </c>
       <c r="O2">
-        <v>5.977551973917741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1810921875868203</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>0.4940096098496554</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280085214</v>
+        <v>0.04047217259341451</v>
       </c>
       <c r="E3">
-        <v>1.336160509687247</v>
+        <v>0.1132639068230619</v>
       </c>
       <c r="F3">
-        <v>1.540579415516163</v>
+        <v>0.8390645144500581</v>
       </c>
       <c r="G3">
-        <v>0.000723538520274197</v>
+        <v>0.7755318682488195</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01673007804039522</v>
       </c>
       <c r="I3">
-        <v>9.844336852165611</v>
+        <v>0.03244919721275741</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.542043888563299</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6598955526798207</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.379257181989374</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2025062300727143</v>
       </c>
       <c r="O3">
-        <v>5.144303722186692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1582849893114648</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.7126419304401</v>
+        <v>0.4500944372253883</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412787324</v>
+        <v>0.03933494728156361</v>
       </c>
       <c r="E4">
-        <v>1.19836875584835</v>
+        <v>0.108163796066493</v>
       </c>
       <c r="F4">
-        <v>1.39156792097431</v>
+        <v>0.7992167596824515</v>
       </c>
       <c r="G4">
-        <v>0.000728332473791079</v>
+        <v>0.7396095621424763</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01886742550542092</v>
       </c>
       <c r="I4">
-        <v>8.956724654652504</v>
+        <v>0.03513621448505688</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5288002186757552</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6559334818288249</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.259096369704537</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1846117094674327</v>
       </c>
       <c r="O4">
-        <v>4.64447396529016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1442592808995968</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140158</v>
+        <v>0.431326405762519</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140480798</v>
+        <v>0.03891110810529597</v>
       </c>
       <c r="E5">
-        <v>1.14309955668044</v>
+        <v>0.1061019943488271</v>
       </c>
       <c r="F5">
-        <v>1.33157839699696</v>
+        <v>0.7820404957148668</v>
       </c>
       <c r="G5">
-        <v>0.0007303138689011546</v>
+        <v>0.7238805311962579</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01980135247521841</v>
       </c>
       <c r="I5">
-        <v>8.595401611000312</v>
+        <v>0.03639845861627267</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.52286148806418</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6531778301653688</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.211776309448169</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1776204370131325</v>
       </c>
       <c r="O5">
-        <v>4.443320970959121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1384841668876291</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584666</v>
+        <v>0.4272481692683243</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621548932</v>
+        <v>0.03889075464968528</v>
       </c>
       <c r="E6">
-        <v>1.133970667797598</v>
+        <v>0.1057774145201744</v>
       </c>
       <c r="F6">
-        <v>1.3216581183557</v>
+        <v>0.7778453233828557</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175804783</v>
+        <v>0.7197658594172651</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01996803837612421</v>
       </c>
       <c r="I6">
-        <v>8.535422914870196</v>
+        <v>0.03674768677066442</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.52109909279703</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6513638169964757</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.205738093749602</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1767914182705255</v>
       </c>
       <c r="O6">
-        <v>4.410060780376682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1374599125150269</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286499593</v>
+        <v>0.4472206506132892</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861199166</v>
+        <v>0.03946716753015878</v>
       </c>
       <c r="E7">
-        <v>1.19762002231144</v>
+        <v>0.1081853488632607</v>
       </c>
       <c r="F7">
-        <v>1.390756064626686</v>
+        <v>0.7952892500397724</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801211284</v>
+        <v>0.7352684145282637</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01890125396867037</v>
       </c>
       <c r="I7">
-        <v>8.951850372969403</v>
+        <v>0.03550589214601008</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5265860139351446</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6521991177218354</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.263413257939931</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1854204983534089</v>
       </c>
       <c r="O7">
-        <v>4.641751433936349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.144003635708124</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047043175</v>
+        <v>0.5370620783674838</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231106648</v>
+        <v>0.0418708970649746</v>
       </c>
       <c r="E8">
-        <v>1.486702222600101</v>
+        <v>0.118801496253174</v>
       </c>
       <c r="F8">
-        <v>1.702442448580101</v>
+        <v>0.8773202394057193</v>
       </c>
       <c r="G8">
-        <v>0.0007185119885717572</v>
+        <v>0.8089480840715453</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01467045638177977</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>0.03022235745192781</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5537190577705928</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6591609767770912</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.514762925155651</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2229229479393098</v>
       </c>
       <c r="O8">
-        <v>5.687526064025633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1729944618090968</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025559</v>
+        <v>0.7151635575557691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958650062</v>
+        <v>0.04630969887972824</v>
       </c>
       <c r="E9">
-        <v>2.096339606710956</v>
+        <v>0.1399452261419496</v>
       </c>
       <c r="F9">
-        <v>2.347128541868827</v>
+        <v>1.051362918445008</v>
       </c>
       <c r="G9">
-        <v>0.0006998995818340164</v>
+        <v>0.9666390581830342</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.008279595707211179</v>
       </c>
       <c r="I9">
-        <v>14.43077138200431</v>
+        <v>0.02140982400585756</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6143559678890682</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6784264643083446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.006337561137485</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2960901375019063</v>
       </c>
       <c r="O9">
-        <v>7.854162298617837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2300440954632883</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502376</v>
+        <v>0.8358832829273126</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081218323</v>
+        <v>0.05048294382343954</v>
       </c>
       <c r="E10">
-        <v>2.586060833366659</v>
+        <v>0.1572633086718138</v>
       </c>
       <c r="F10">
-        <v>2.851605898883406</v>
+        <v>1.163689798574978</v>
       </c>
       <c r="G10">
-        <v>0.0006864679270406255</v>
+        <v>1.064077512166278</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00527166192630002</v>
       </c>
       <c r="I10">
-        <v>17.13355518509042</v>
+        <v>0.01662128052239886</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6498797510822811</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6749319784543246</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.395546687260122</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3385940021135525</v>
       </c>
       <c r="O10">
-        <v>9.553113749089505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2662836670465119</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615394</v>
+        <v>0.824290847616453</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520348895</v>
+        <v>0.06124272142389486</v>
       </c>
       <c r="E11">
-        <v>2.822475958477014</v>
+        <v>0.1881722963032573</v>
       </c>
       <c r="F11">
-        <v>3.090660193508597</v>
+        <v>1.050583244183443</v>
       </c>
       <c r="G11">
-        <v>0.0006803599164443492</v>
+        <v>0.9269021538043773</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02385909047343659</v>
       </c>
       <c r="I11">
-        <v>18.37337786845438</v>
+        <v>0.01623970306321976</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.573629487509038</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5497279486876003</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.755280591225784</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2567728544435823</v>
       </c>
       <c r="O11">
-        <v>10.35932114213165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2354165005337165</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609853</v>
+        <v>0.7931629543709562</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01237899073032267</v>
+        <v>0.07088599238723958</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>0.2263107206533377</v>
       </c>
       <c r="F12">
-        <v>3.182852286963396</v>
+        <v>0.9411811129297263</v>
       </c>
       <c r="G12">
-        <v>0.0006780420885285025</v>
+        <v>0.8038761383436679</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06279683858937801</v>
       </c>
       <c r="I12">
-        <v>18.84469284874035</v>
+        <v>0.01618453649764628</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5082079027942967</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.467892938130138</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.979810753653709</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1877067009193922</v>
       </c>
       <c r="O12">
-        <v>10.6704386515147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2038587320097989</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.73839221458843</v>
+        <v>0.741253650176759</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534359705</v>
+        <v>0.0802971788235638</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.27146984060278</v>
       </c>
       <c r="F13">
-        <v>3.16291765598308</v>
+        <v>0.8223022937920206</v>
       </c>
       <c r="G13">
-        <v>0.0006785415834695837</v>
+        <v>0.6779603696905099</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1190787476236892</v>
       </c>
       <c r="I13">
-        <v>18.74309994097513</v>
+        <v>0.01685675397341591</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4438400616387952</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4085477886031494</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.118480297207384</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1262653772818538</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1698806436831859</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.635802115248225</v>
+        <v>0.6950980142752599</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160203982</v>
+        <v>0.08697579556544355</v>
       </c>
       <c r="E14">
-        <v>2.829990385389266</v>
+        <v>0.3081190640971272</v>
       </c>
       <c r="F14">
-        <v>3.098209602540265</v>
+        <v>0.7351161126102852</v>
       </c>
       <c r="G14">
-        <v>0.000680169357895933</v>
+        <v>0.589164112930689</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1689112059930409</v>
       </c>
       <c r="I14">
-        <v>18.41211466341952</v>
+        <v>0.0177670150293876</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3994985095965973</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3790236218164065</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.178682930049462</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.088666362253079</v>
       </c>
       <c r="O14">
-        <v>10.38479363018212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1454532744645292</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217149614</v>
+        <v>0.6785832364859345</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091425058</v>
+        <v>0.08842274915097192</v>
       </c>
       <c r="E15">
-        <v>2.790797357017937</v>
+        <v>0.3167378234837415</v>
       </c>
       <c r="F15">
-        <v>3.058800812428103</v>
+        <v>0.7103509546687548</v>
       </c>
       <c r="G15">
-        <v>0.0006811656135376502</v>
+        <v>0.5649997674794349</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1816546270993058</v>
       </c>
       <c r="I15">
-        <v>18.20962447570048</v>
+        <v>0.01831559834108365</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3879650382956896</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3739094492301884</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.17560518292899</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08004532201671566</v>
       </c>
       <c r="O15">
-        <v>10.25183258971805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1387609963843381</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192307384</v>
+        <v>0.637116507593646</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331146345</v>
+        <v>0.0844013297153694</v>
       </c>
       <c r="E16">
-        <v>2.57092413298578</v>
+        <v>0.2984989734344836</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>0.6848823302473761</v>
       </c>
       <c r="G16">
-        <v>0.0006868667237534292</v>
+        <v>0.547363899364143</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1702233286714261</v>
       </c>
       <c r="I16">
-        <v>17.0527654008352</v>
+        <v>0.02041818630661307</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3847757832906922</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3857608024780239</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.97618395589393</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07651450528528159</v>
       </c>
       <c r="O16">
-        <v>9.501180815391137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1310219904521936</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217551403</v>
+        <v>0.6294876440223618</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818483491</v>
+        <v>0.07771807549999465</v>
       </c>
       <c r="E17">
-        <v>2.43984551765115</v>
+        <v>0.2639855011818995</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>0.7111211402659308</v>
       </c>
       <c r="G17">
-        <v>0.0006903613416013465</v>
+        <v>0.5801527779785829</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1332112941770163</v>
       </c>
       <c r="I17">
-        <v>16.34593973321421</v>
+        <v>0.02159240297527365</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4055475084133064</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4088728277545801</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.792078684951008</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09259024172839503</v>
       </c>
       <c r="O17">
-        <v>9.049894410862862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1376939439901292</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028616981</v>
+        <v>0.6523316806932655</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.009514980397314687</v>
+        <v>0.06850892567211275</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.2181934476333645</v>
       </c>
       <c r="F18">
-        <v>2.626135773823876</v>
+        <v>0.78968079199052</v>
       </c>
       <c r="G18">
-        <v>0.0006923719131902085</v>
+        <v>0.666497456288198</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08053662236562786</v>
       </c>
       <c r="I18">
-        <v>15.94034052935723</v>
+        <v>0.0216122045139624</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4524395720379459</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4544571445007328</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.599235934989281</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1322639291799419</v>
       </c>
       <c r="O18">
-        <v>8.793393365344173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1587199212916843</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082259226</v>
+        <v>0.6939022707283868</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476403883</v>
+        <v>0.05947767048384378</v>
       </c>
       <c r="E19">
-        <v>2.34079917854109</v>
+        <v>0.1787773237897845</v>
       </c>
       <c r="F19">
-        <v>2.600497178597308</v>
+        <v>0.9032738947184811</v>
       </c>
       <c r="G19">
-        <v>0.0006930528958905002</v>
+        <v>0.7900882269582183</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03467215065159479</v>
       </c>
       <c r="I19">
-        <v>15.80316478736864</v>
+        <v>0.0212556641752375</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5168122144569907</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.524584776485149</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.4302038150268</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1975034142509315</v>
       </c>
       <c r="O19">
-        <v>8.707044974998837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.1913204150610603</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.01912234591407</v>
+        <v>0.795653637678754</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0099574532787301</v>
+        <v>0.04990588362681336</v>
       </c>
       <c r="E20">
-        <v>2.453666606034659</v>
+        <v>0.1529915087362452</v>
       </c>
       <c r="F20">
-        <v>2.71644442473513</v>
+        <v>1.121603180139545</v>
       </c>
       <c r="G20">
-        <v>0.000689989309912319</v>
+        <v>1.024536478013502</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005994580646558667</v>
       </c>
       <c r="I20">
-        <v>16.42108206781103</v>
+        <v>0.01878762901259279</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6333904670997157</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6642263761877913</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.30958193538595</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3296978074382366</v>
       </c>
       <c r="O20">
-        <v>9.097610356594373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2559714987213226</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848072868</v>
+        <v>0.9005246512588769</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752425056</v>
+        <v>0.05172744594079148</v>
       </c>
       <c r="E21">
-        <v>2.848874331676171</v>
+        <v>0.1646504403736087</v>
       </c>
       <c r="F21">
-        <v>3.117168067285291</v>
+        <v>1.241398439966531</v>
       </c>
       <c r="G21">
-        <v>0.0006796914192121364</v>
+        <v>1.136374154767964</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003591777717224853</v>
       </c>
       <c r="I21">
-        <v>18.50928075155713</v>
+        <v>0.01514394048506507</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6796074220552555</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6873545877089882</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.578575845130928</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3817643489141034</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.292549557079937</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.092447247813993</v>
+        <v>0.9686709203572548</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510471006596</v>
+        <v>0.0531463434225401</v>
       </c>
       <c r="E22">
-        <v>3.121746484625959</v>
+        <v>0.1730007158179934</v>
       </c>
       <c r="F22">
-        <v>3.388961998781213</v>
+        <v>1.316198140917834</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473788289</v>
+        <v>1.205329459984512</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002475235410445364</v>
       </c>
       <c r="I22">
-        <v>19.8848393921765</v>
+        <v>0.01273729382287137</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7077527852948151</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6992768255146586</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.759217221641222</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.408355018405345</v>
       </c>
       <c r="O22">
-        <v>11.36640331357137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.313886084001247</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231949994</v>
+        <v>0.9355066187011118</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0127078465439574</v>
+        <v>0.05220337437202716</v>
       </c>
       <c r="E23">
-        <v>2.974583373186761</v>
+        <v>0.1684269033936854</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>1.280474911658843</v>
       </c>
       <c r="G23">
-        <v>0.0006765434037532156</v>
+        <v>1.173234856393805</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003035871397301104</v>
       </c>
       <c r="I23">
-        <v>19.14956756317599</v>
+        <v>0.01362272573224654</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6951313478184602</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6971201333240487</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.656544535053115</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3930378561258721</v>
       </c>
       <c r="O23">
-        <v>10.87308314478946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3027134531724158</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.008606037163418</v>
+        <v>0.8044149317597942</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009925793883327927</v>
+        <v>0.04893150916780797</v>
       </c>
       <c r="E24">
-        <v>2.447414342894504</v>
+        <v>0.1516812200856794</v>
       </c>
       <c r="F24">
-        <v>2.710038836878795</v>
+        <v>1.141204842082345</v>
       </c>
       <c r="G24">
-        <v>0.0006901575005401294</v>
+        <v>1.046735154582464</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005750581304894031</v>
       </c>
       <c r="I24">
-        <v>16.38710786282718</v>
+        <v>0.01812853567567618</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6448794248003793</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.682280863026584</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.28101686897898</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3372538002007843</v>
       </c>
       <c r="O24">
-        <v>9.076028865477952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2601189318533876</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846857</v>
+        <v>0.6624542421489537</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202632637</v>
+        <v>0.04537827654623783</v>
       </c>
       <c r="E25">
-        <v>1.925385879019359</v>
+        <v>0.134271014130543</v>
       </c>
       <c r="F25">
-        <v>2.168159383477573</v>
+        <v>0.9968042779066479</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891826179</v>
+        <v>0.9158119825336115</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.009810668647113142</v>
       </c>
       <c r="I25">
-        <v>13.44254217779257</v>
+        <v>0.02413130146842857</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5937007936121006</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6667674889513187</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.881493481136005</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2778026010743275</v>
       </c>
       <c r="O25">
-        <v>7.25219442194043</v>
+        <v>0.214287087348918</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5649482706701576</v>
+        <v>0.5003802519077283</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04231859316634967</v>
+        <v>0.0445121768369674</v>
       </c>
       <c r="E2">
-        <v>0.1216163175008145</v>
+        <v>0.1097169897755528</v>
       </c>
       <c r="F2">
-        <v>0.905156016366476</v>
+        <v>0.8217884977248673</v>
       </c>
       <c r="G2">
-        <v>0.8350813386607143</v>
+        <v>0.7212539488999141</v>
       </c>
       <c r="H2">
-        <v>0.01362616774597694</v>
+        <v>0.01016572255439279</v>
       </c>
       <c r="I2">
-        <v>0.02848497516972026</v>
+        <v>0.01975918980732505</v>
       </c>
       <c r="J2">
-        <v>0.5642916096350206</v>
+        <v>0.5514946225954418</v>
       </c>
       <c r="K2">
-        <v>0.6661542156893887</v>
+        <v>0.5361176298292278</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.213951247089426</v>
       </c>
       <c r="M2">
-        <v>1.576244686618509</v>
+        <v>0.1884205808641273</v>
       </c>
       <c r="N2">
-        <v>0.2318760473043397</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1810921875868203</v>
+        <v>1.667443530645755</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2573721572040029</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1775913257196322</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4940096098496554</v>
+        <v>0.4394285135322207</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04047217259341451</v>
+        <v>0.04177916818728633</v>
       </c>
       <c r="E3">
-        <v>0.1132639068230619</v>
+        <v>0.1013751001991725</v>
       </c>
       <c r="F3">
-        <v>0.8390645144500581</v>
+        <v>0.7680635330628078</v>
       </c>
       <c r="G3">
-        <v>0.7755318682488195</v>
+        <v>0.6769708880484302</v>
       </c>
       <c r="H3">
-        <v>0.01673007804039522</v>
+        <v>0.0126336869811617</v>
       </c>
       <c r="I3">
-        <v>0.03244919721275741</v>
+        <v>0.0225528462308362</v>
       </c>
       <c r="J3">
-        <v>0.542043888563299</v>
+        <v>0.5317495940974482</v>
       </c>
       <c r="K3">
-        <v>0.6598955526798207</v>
+        <v>0.5391230789270836</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2187408993438531</v>
       </c>
       <c r="M3">
-        <v>1.379257181989374</v>
+        <v>0.1877360985886707</v>
       </c>
       <c r="N3">
-        <v>0.2025062300727143</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1582849893114648</v>
+        <v>1.450778571116587</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2245579781812523</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.155396631145134</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4500944372253883</v>
+        <v>0.4015568583670159</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03933494728156361</v>
+        <v>0.04011196144470119</v>
       </c>
       <c r="E4">
-        <v>0.108163796066493</v>
+        <v>0.09631997276450033</v>
       </c>
       <c r="F4">
-        <v>0.7992167596824515</v>
+        <v>0.7356483040982553</v>
       </c>
       <c r="G4">
-        <v>0.7396095621424763</v>
+        <v>0.6505002169019178</v>
       </c>
       <c r="H4">
-        <v>0.01886742550542092</v>
+        <v>0.01434144091424674</v>
       </c>
       <c r="I4">
-        <v>0.03513621448505688</v>
+        <v>0.02446503876973383</v>
       </c>
       <c r="J4">
-        <v>0.5288002186757552</v>
+        <v>0.5196965219292053</v>
       </c>
       <c r="K4">
-        <v>0.6559334818288249</v>
+        <v>0.5408462451798641</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2216654609035729</v>
       </c>
       <c r="M4">
-        <v>1.259096369704537</v>
+        <v>0.187750853253025</v>
       </c>
       <c r="N4">
-        <v>0.1846117094674327</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1442592808995968</v>
+        <v>1.318718651587488</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2045946477387304</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1417335585122999</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.431326405762519</v>
+        <v>0.3853599711523685</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03891110810529597</v>
+        <v>0.03947667660565912</v>
       </c>
       <c r="E5">
-        <v>0.1061019943488271</v>
+        <v>0.09431063181023447</v>
       </c>
       <c r="F5">
-        <v>0.7820404957148668</v>
+        <v>0.7216479955927255</v>
       </c>
       <c r="G5">
-        <v>0.7238805311962579</v>
+        <v>0.6388658643460019</v>
       </c>
       <c r="H5">
-        <v>0.01980135247521841</v>
+        <v>0.01508943297450374</v>
       </c>
       <c r="I5">
-        <v>0.03639845861627267</v>
+        <v>0.02540565929615379</v>
       </c>
       <c r="J5">
-        <v>0.52286148806418</v>
+        <v>0.5142588550526597</v>
       </c>
       <c r="K5">
-        <v>0.6531778301653688</v>
+        <v>0.5406976311124616</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2224667749149525</v>
       </c>
       <c r="M5">
-        <v>1.211776309448169</v>
+        <v>0.1876399246383968</v>
       </c>
       <c r="N5">
-        <v>0.1776204370131325</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1384841668876291</v>
+        <v>1.266462614463393</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1967450766088916</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1361102181304403</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4272481692683243</v>
+        <v>0.3818672231385563</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03889075464968528</v>
+        <v>0.03942261106906741</v>
       </c>
       <c r="E6">
-        <v>0.1057774145201744</v>
+        <v>0.09402507272400396</v>
       </c>
       <c r="F6">
-        <v>0.7778453233828557</v>
+        <v>0.7182052213344292</v>
       </c>
       <c r="G6">
-        <v>0.7197658594172651</v>
+        <v>0.6357077678730718</v>
       </c>
       <c r="H6">
-        <v>0.01996803837612421</v>
+        <v>0.01522302265460287</v>
       </c>
       <c r="I6">
-        <v>0.03674768677066442</v>
+        <v>0.02571177297388338</v>
       </c>
       <c r="J6">
-        <v>0.52109909279703</v>
+        <v>0.512696089233188</v>
       </c>
       <c r="K6">
-        <v>0.6513638169964757</v>
+        <v>0.5396724201719323</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2221300506264612</v>
       </c>
       <c r="M6">
-        <v>1.205738093749602</v>
+        <v>0.1873511718143153</v>
       </c>
       <c r="N6">
-        <v>0.1767914182705255</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1374599125150269</v>
+        <v>1.259442034804721</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1957413183158394</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1351197789230483</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4472206506132892</v>
+        <v>0.3997872596348628</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03946716753015878</v>
+        <v>0.04036868494895884</v>
       </c>
       <c r="E7">
-        <v>0.1081853488632607</v>
+        <v>0.09633333411435441</v>
       </c>
       <c r="F7">
-        <v>0.7952892500397724</v>
+        <v>0.7300552674901937</v>
       </c>
       <c r="G7">
-        <v>0.7352684145282637</v>
+        <v>0.6497309587291937</v>
       </c>
       <c r="H7">
-        <v>0.01890125396867037</v>
+        <v>0.01437651470333615</v>
       </c>
       <c r="I7">
-        <v>0.03550589214601008</v>
+        <v>0.02486828205294067</v>
       </c>
       <c r="J7">
-        <v>0.5265860139351446</v>
+        <v>0.5108801339207929</v>
       </c>
       <c r="K7">
-        <v>0.6521991177218354</v>
+        <v>0.5373261294608334</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2200619738430127</v>
       </c>
       <c r="M7">
-        <v>1.263413257939931</v>
+        <v>0.1867332472403955</v>
       </c>
       <c r="N7">
-        <v>0.1854204983534089</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.144003635708124</v>
+        <v>1.321063246851025</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2050599599947276</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1415465701086873</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5370620783674838</v>
+        <v>0.4786571655075988</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0418708970649746</v>
+        <v>0.04419036986134728</v>
       </c>
       <c r="E8">
-        <v>0.118801496253174</v>
+        <v>0.1067035800673057</v>
       </c>
       <c r="F8">
-        <v>0.8773202394057193</v>
+        <v>0.7913703634416862</v>
       </c>
       <c r="G8">
-        <v>0.8089480840715453</v>
+        <v>0.710644217424246</v>
       </c>
       <c r="H8">
-        <v>0.01467045638177977</v>
+        <v>0.01101596640386127</v>
       </c>
       <c r="I8">
-        <v>0.03022235745192781</v>
+        <v>0.02116883144066684</v>
       </c>
       <c r="J8">
-        <v>0.5537190577705928</v>
+        <v>0.519542587946205</v>
       </c>
       <c r="K8">
-        <v>0.6591609767770912</v>
+        <v>0.531093038054248</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.213017462291397</v>
       </c>
       <c r="M8">
-        <v>1.514762925155651</v>
+        <v>0.1861321319514637</v>
       </c>
       <c r="N8">
-        <v>0.2229229479393098</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1729944618090968</v>
+        <v>1.593650426353548</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2462900003660451</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1698817374064205</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7151635575557691</v>
+        <v>0.6314327879550206</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04630969887972824</v>
+        <v>0.05106441188196698</v>
       </c>
       <c r="E9">
-        <v>0.1399452261419496</v>
+        <v>0.127829544668133</v>
       </c>
       <c r="F9">
-        <v>1.051362918445008</v>
+        <v>0.9307223212801148</v>
       </c>
       <c r="G9">
-        <v>0.9666390581830342</v>
+        <v>0.83254325917909</v>
       </c>
       <c r="H9">
-        <v>0.008279595707211179</v>
+        <v>0.005981974808772661</v>
       </c>
       <c r="I9">
-        <v>0.02140982400585756</v>
+        <v>0.01491490830407383</v>
       </c>
       <c r="J9">
-        <v>0.6143559678890682</v>
+        <v>0.5651318609904479</v>
       </c>
       <c r="K9">
-        <v>0.6784264643083446</v>
+        <v>0.5255158803684914</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2023802526359617</v>
       </c>
       <c r="M9">
-        <v>2.006337561137485</v>
+        <v>0.1907812853083293</v>
       </c>
       <c r="N9">
-        <v>0.2960901375019063</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2300440954632883</v>
+        <v>2.134272250148541</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3281655366565275</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2253309063206181</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8358832829273126</v>
+        <v>0.7398210059789676</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05048294382343954</v>
+        <v>0.05797131586859194</v>
       </c>
       <c r="E10">
-        <v>0.1572633086718138</v>
+        <v>0.1456552798787456</v>
       </c>
       <c r="F10">
-        <v>1.163689798574978</v>
+        <v>1.00787903452094</v>
       </c>
       <c r="G10">
-        <v>1.064077512166278</v>
+        <v>0.9262585632724125</v>
       </c>
       <c r="H10">
-        <v>0.00527166192630002</v>
+        <v>0.003730403092299994</v>
       </c>
       <c r="I10">
-        <v>0.01662128052239886</v>
+        <v>0.01170130184288176</v>
       </c>
       <c r="J10">
-        <v>0.6498797510822811</v>
+        <v>0.5521708660477458</v>
       </c>
       <c r="K10">
-        <v>0.6749319784543246</v>
+        <v>0.5061988319197468</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1894407450608853</v>
       </c>
       <c r="M10">
-        <v>2.395546687260122</v>
+        <v>0.190375158012337</v>
       </c>
       <c r="N10">
-        <v>0.3385940021135525</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2662836670465119</v>
+        <v>2.54713197650517</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3742169533429518</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2607846417103659</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.824290847616453</v>
+        <v>0.753116209307052</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06124272142389486</v>
+        <v>0.07182030691003405</v>
       </c>
       <c r="E11">
-        <v>0.1881722963032573</v>
+        <v>0.1807825634447369</v>
       </c>
       <c r="F11">
-        <v>1.050583244183443</v>
+        <v>0.8958836140585049</v>
       </c>
       <c r="G11">
-        <v>0.9269021538043773</v>
+        <v>0.8560554801410518</v>
       </c>
       <c r="H11">
-        <v>0.02385909047343659</v>
+        <v>0.02239392240150906</v>
       </c>
       <c r="I11">
-        <v>0.01623970306321976</v>
+        <v>0.01177268677694254</v>
       </c>
       <c r="J11">
-        <v>0.573629487509038</v>
+        <v>0.4252738083088445</v>
       </c>
       <c r="K11">
-        <v>0.5497279486876003</v>
+        <v>0.4183240839763656</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1576357327192728</v>
       </c>
       <c r="M11">
-        <v>2.755280591225784</v>
+        <v>0.1573968437145687</v>
       </c>
       <c r="N11">
-        <v>0.2567728544435823</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2354165005337165</v>
+        <v>2.864077581621757</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.279500882489387</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2317237958035676</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7931629543709562</v>
+        <v>0.7422811390189281</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07088599238723958</v>
+        <v>0.08275730538783677</v>
       </c>
       <c r="E12">
-        <v>0.2263107206533377</v>
+        <v>0.219199875452702</v>
       </c>
       <c r="F12">
-        <v>0.9411811129297263</v>
+        <v>0.8016265694258493</v>
       </c>
       <c r="G12">
-        <v>0.8038761383436679</v>
+        <v>0.7740713331672566</v>
       </c>
       <c r="H12">
-        <v>0.06279683858937801</v>
+        <v>0.06130943774289932</v>
       </c>
       <c r="I12">
-        <v>0.01618453649764628</v>
+        <v>0.01175168816906869</v>
       </c>
       <c r="J12">
-        <v>0.5082079027942967</v>
+        <v>0.354765962552321</v>
       </c>
       <c r="K12">
-        <v>0.467892938130138</v>
+        <v>0.3670312690475956</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.140899549796365</v>
       </c>
       <c r="M12">
-        <v>2.979810753653709</v>
+        <v>0.136171844699799</v>
       </c>
       <c r="N12">
-        <v>0.1877067009193922</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2038587320097989</v>
+        <v>3.049209902974098</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2016528240922923</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2015144902644117</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.741253650176759</v>
+        <v>0.70728254423571</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0802971788235638</v>
+        <v>0.09123258846127413</v>
       </c>
       <c r="E13">
-        <v>0.27146984060278</v>
+        <v>0.2629639271917412</v>
       </c>
       <c r="F13">
-        <v>0.8223022937920206</v>
+        <v>0.7139272774207939</v>
       </c>
       <c r="G13">
-        <v>0.6779603696905099</v>
+        <v>0.667626855741176</v>
       </c>
       <c r="H13">
-        <v>0.1190787476236892</v>
+        <v>0.1174722134954038</v>
       </c>
       <c r="I13">
-        <v>0.01685675397341591</v>
+        <v>0.01219130692266557</v>
       </c>
       <c r="J13">
-        <v>0.4438400616387952</v>
+        <v>0.322415899818381</v>
       </c>
       <c r="K13">
-        <v>0.4085477886031494</v>
+        <v>0.3351551015243519</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1314710816292801</v>
       </c>
       <c r="M13">
-        <v>3.118480297207384</v>
+        <v>0.1216176108125175</v>
       </c>
       <c r="N13">
-        <v>0.1262653772818538</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1698806436831859</v>
+        <v>3.153555929530228</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1340575285917538</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1685639827922678</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6950980142752599</v>
+        <v>0.6715207173477609</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08697579556544355</v>
+        <v>0.09603910547171068</v>
       </c>
       <c r="E14">
-        <v>0.3081190640971272</v>
+        <v>0.2978184250638733</v>
       </c>
       <c r="F14">
-        <v>0.7351161126102852</v>
+        <v>0.6542487685356022</v>
       </c>
       <c r="G14">
-        <v>0.589164112930689</v>
+        <v>0.5840689525832374</v>
       </c>
       <c r="H14">
-        <v>0.1689112059930409</v>
+        <v>0.1671765998612216</v>
       </c>
       <c r="I14">
-        <v>0.0177670150293876</v>
+        <v>0.01282915413640229</v>
       </c>
       <c r="J14">
-        <v>0.3994985095965973</v>
+        <v>0.3130257716926508</v>
       </c>
       <c r="K14">
-        <v>0.3790236218164065</v>
+        <v>0.3214104525991734</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1277106095148504</v>
       </c>
       <c r="M14">
-        <v>3.178682930049462</v>
+        <v>0.1147610565375228</v>
       </c>
       <c r="N14">
-        <v>0.088666362253079</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1454532744645292</v>
+        <v>3.191706239143258</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.09330209124239275</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1447108778422113</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6785832364859345</v>
+        <v>0.6571128295221058</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08842274915097192</v>
+        <v>0.09656923499780135</v>
       </c>
       <c r="E15">
-        <v>0.3167378234837415</v>
+        <v>0.3061055248482347</v>
       </c>
       <c r="F15">
-        <v>0.7103509546687548</v>
+        <v>0.6390452186765074</v>
       </c>
       <c r="G15">
-        <v>0.5649997674794349</v>
+        <v>0.5583830065274782</v>
       </c>
       <c r="H15">
-        <v>0.1816546270993058</v>
+        <v>0.1798562559898755</v>
       </c>
       <c r="I15">
-        <v>0.01831559834108365</v>
+        <v>0.01326503809653801</v>
       </c>
       <c r="J15">
-        <v>0.3879650382956896</v>
+        <v>0.3157373342311871</v>
       </c>
       <c r="K15">
-        <v>0.3739094492301884</v>
+        <v>0.319829241874404</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1272903350587151</v>
       </c>
       <c r="M15">
-        <v>3.17560518292899</v>
+        <v>0.1138109979895772</v>
       </c>
       <c r="N15">
-        <v>0.08004532201671566</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1387609963843381</v>
+        <v>3.184434712030196</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.08411435462107164</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1381273156125999</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.637116507593646</v>
+        <v>0.6115876039924899</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0844013297153694</v>
+        <v>0.08922974663836669</v>
       </c>
       <c r="E16">
-        <v>0.2984989734344836</v>
+        <v>0.290454093675983</v>
       </c>
       <c r="F16">
-        <v>0.6848823302473761</v>
+        <v>0.6378095545267897</v>
       </c>
       <c r="G16">
-        <v>0.547363899364143</v>
+        <v>0.5179320120985409</v>
       </c>
       <c r="H16">
-        <v>0.1702233286714261</v>
+        <v>0.1680752172148772</v>
       </c>
       <c r="I16">
-        <v>0.02041818630661307</v>
+        <v>0.01473090467893279</v>
       </c>
       <c r="J16">
-        <v>0.3847757832906922</v>
+        <v>0.3639499684198739</v>
       </c>
       <c r="K16">
-        <v>0.3857608024780239</v>
+        <v>0.3326323573763199</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1307886204698117</v>
       </c>
       <c r="M16">
-        <v>2.97618395589393</v>
+        <v>0.1189958718235431</v>
       </c>
       <c r="N16">
-        <v>0.07651450528528159</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1310219904521936</v>
+        <v>2.998332869417879</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.08166200908246424</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1301642068899902</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6294876440223618</v>
+        <v>0.5964110913835157</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07771807549999465</v>
+        <v>0.08164147101193464</v>
       </c>
       <c r="E17">
-        <v>0.2639855011818995</v>
+        <v>0.2583011468968337</v>
       </c>
       <c r="F17">
-        <v>0.7111211402659308</v>
+        <v>0.666518395177313</v>
       </c>
       <c r="G17">
-        <v>0.5801527779785829</v>
+        <v>0.5331490699037573</v>
       </c>
       <c r="H17">
-        <v>0.1332112941770163</v>
+        <v>0.1308599889925404</v>
       </c>
       <c r="I17">
-        <v>0.02159240297527365</v>
+        <v>0.01556227777406871</v>
       </c>
       <c r="J17">
-        <v>0.4055475084133064</v>
+        <v>0.4033321415916049</v>
       </c>
       <c r="K17">
-        <v>0.4088728277545801</v>
+        <v>0.3499777976191929</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1362739684531569</v>
       </c>
       <c r="M17">
-        <v>2.792078684951008</v>
+        <v>0.1260774473634667</v>
       </c>
       <c r="N17">
-        <v>0.09259024172839503</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1376939439901292</v>
+        <v>2.833073954779081</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1001129015219959</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1364161616603852</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6523316806932655</v>
+        <v>0.6058932539958448</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06850892567211275</v>
+        <v>0.07275701031210957</v>
       </c>
       <c r="E18">
-        <v>0.2181934476333645</v>
+        <v>0.2142692896155722</v>
       </c>
       <c r="F18">
-        <v>0.78968079199052</v>
+        <v>0.7321996077577779</v>
       </c>
       <c r="G18">
-        <v>0.666497456288198</v>
+        <v>0.5965965405952289</v>
       </c>
       <c r="H18">
-        <v>0.08053662236562786</v>
+        <v>0.07813343934389394</v>
       </c>
       <c r="I18">
-        <v>0.0216122045139624</v>
+        <v>0.01544539800722067</v>
       </c>
       <c r="J18">
-        <v>0.4524395720379459</v>
+        <v>0.4507197756685173</v>
       </c>
       <c r="K18">
-        <v>0.4544571445007328</v>
+        <v>0.3803068509369147</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.146844224798456</v>
       </c>
       <c r="M18">
-        <v>2.599235934989281</v>
+        <v>0.1380199783638218</v>
       </c>
       <c r="N18">
-        <v>0.1322639291799419</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1587199212916843</v>
+        <v>2.668882089891497</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1446648388580059</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1566501779260783</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6939022707283868</v>
+        <v>0.6301253062861747</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05947767048384378</v>
+        <v>0.06440480965868289</v>
       </c>
       <c r="E19">
-        <v>0.1787773237897845</v>
+        <v>0.1741930829824767</v>
       </c>
       <c r="F19">
-        <v>0.9032738947184811</v>
+        <v>0.8223891443628304</v>
       </c>
       <c r="G19">
-        <v>0.7900882269582183</v>
+        <v>0.6912955507464744</v>
       </c>
       <c r="H19">
-        <v>0.03467215065159479</v>
+        <v>0.03238816192720861</v>
       </c>
       <c r="I19">
-        <v>0.0212556641752375</v>
+        <v>0.01525714483281071</v>
       </c>
       <c r="J19">
-        <v>0.5168122144569907</v>
+        <v>0.5042273001684947</v>
       </c>
       <c r="K19">
-        <v>0.524584776485149</v>
+        <v>0.4246150730213145</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1627619267249649</v>
       </c>
       <c r="M19">
-        <v>2.4302038150268</v>
+        <v>0.1552132337449184</v>
       </c>
       <c r="N19">
-        <v>0.1975034142509315</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1913204150610603</v>
+        <v>2.532483290092273</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2175881447826953</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.1881163848485485</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.795653637678754</v>
+        <v>0.7021637485824215</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04990588362681336</v>
+        <v>0.05618474821561392</v>
       </c>
       <c r="E20">
-        <v>0.1529915087362452</v>
+        <v>0.1419728376593845</v>
       </c>
       <c r="F20">
-        <v>1.121603180139545</v>
+        <v>0.985741429219857</v>
       </c>
       <c r="G20">
-        <v>1.024536478013502</v>
+        <v>0.8800915406464611</v>
       </c>
       <c r="H20">
-        <v>0.005994580646558667</v>
+        <v>0.004248933888747253</v>
       </c>
       <c r="I20">
-        <v>0.01878762901259279</v>
+        <v>0.01358521471379959</v>
       </c>
       <c r="J20">
-        <v>0.6333904670997157</v>
+        <v>0.5735188461840579</v>
       </c>
       <c r="K20">
-        <v>0.6642263761877913</v>
+        <v>0.5059791019550381</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1908623724840979</v>
       </c>
       <c r="M20">
-        <v>2.30958193538595</v>
+        <v>0.1883326324885388</v>
       </c>
       <c r="N20">
-        <v>0.3296978074382366</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2559714987213226</v>
+        <v>2.45898479134118</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3649532856639297</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2506189398175565</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9005246512588769</v>
+        <v>0.8052667284781023</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05172744594079148</v>
+        <v>0.06294886338939421</v>
       </c>
       <c r="E21">
-        <v>0.1646504403736087</v>
+        <v>0.1507198963248282</v>
       </c>
       <c r="F21">
-        <v>1.241398439966531</v>
+        <v>1.027210357025965</v>
       </c>
       <c r="G21">
-        <v>1.136374154767964</v>
+        <v>1.036959282403416</v>
       </c>
       <c r="H21">
-        <v>0.003591777717224853</v>
+        <v>0.002451878982953182</v>
       </c>
       <c r="I21">
-        <v>0.01514394048506507</v>
+        <v>0.01116600915457866</v>
       </c>
       <c r="J21">
-        <v>0.6796074220552555</v>
+        <v>0.4622953531174119</v>
       </c>
       <c r="K21">
-        <v>0.6873545877089882</v>
+        <v>0.4938726420683217</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1824468426710588</v>
       </c>
       <c r="M21">
-        <v>2.578575845130928</v>
+        <v>0.1893129335787762</v>
       </c>
       <c r="N21">
-        <v>0.3817643489141034</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.292549557079937</v>
+        <v>2.723006758866859</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.417352575103763</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2870477639459779</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9686709203572548</v>
+        <v>0.8742955109329102</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0531463434225401</v>
+        <v>0.06802310377019438</v>
       </c>
       <c r="E22">
-        <v>0.1730007158179934</v>
+        <v>0.1574416108098831</v>
       </c>
       <c r="F22">
-        <v>1.316198140917834</v>
+        <v>1.048110353915021</v>
       </c>
       <c r="G22">
-        <v>1.205329459984512</v>
+        <v>1.144478937601264</v>
       </c>
       <c r="H22">
-        <v>0.002475235410445364</v>
+        <v>0.001647484257157217</v>
       </c>
       <c r="I22">
-        <v>0.01273729382287137</v>
+        <v>0.009398504377261752</v>
       </c>
       <c r="J22">
-        <v>0.7077527852948151</v>
+        <v>0.3904906533828267</v>
       </c>
       <c r="K22">
-        <v>0.6992768255146586</v>
+        <v>0.4833050083134438</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1762982943672391</v>
       </c>
       <c r="M22">
-        <v>2.759217221641222</v>
+        <v>0.1890550243431051</v>
       </c>
       <c r="N22">
-        <v>0.408355018405345</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.313886084001247</v>
+        <v>2.896212758410257</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4430237224726596</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3084260525454638</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9355066187011118</v>
+        <v>0.838322241443791</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05220337437202716</v>
+        <v>0.06466039271003865</v>
       </c>
       <c r="E23">
-        <v>0.1684269033936854</v>
+        <v>0.1538679943706018</v>
       </c>
       <c r="F23">
-        <v>1.280474911658843</v>
+        <v>1.046312619825358</v>
       </c>
       <c r="G23">
-        <v>1.173234856393805</v>
+        <v>1.082601996644968</v>
       </c>
       <c r="H23">
-        <v>0.003035871397301104</v>
+        <v>0.002044831280659021</v>
       </c>
       <c r="I23">
-        <v>0.01362272573224654</v>
+        <v>0.009887787431960504</v>
       </c>
       <c r="J23">
-        <v>0.6951313478184602</v>
+        <v>0.4433430221645409</v>
       </c>
       <c r="K23">
-        <v>0.6971201333240487</v>
+        <v>0.4934200244210381</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1810138103197971</v>
       </c>
       <c r="M23">
-        <v>2.656544535053115</v>
+        <v>0.1910690524862453</v>
       </c>
       <c r="N23">
-        <v>0.3930378561258721</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3027134531724158</v>
+        <v>2.802197333970184</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4289984151302946</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.2970835109668855</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8044149317597942</v>
+        <v>0.7080578702571358</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04893150916780797</v>
+        <v>0.05512847776491725</v>
       </c>
       <c r="E24">
-        <v>0.1516812200856794</v>
+        <v>0.139796851477902</v>
       </c>
       <c r="F24">
-        <v>1.141204842082345</v>
+        <v>1.001458846903631</v>
       </c>
       <c r="G24">
-        <v>1.046735154582464</v>
+        <v>0.8967361906263847</v>
       </c>
       <c r="H24">
-        <v>0.005750581304894031</v>
+        <v>0.004028729980658174</v>
       </c>
       <c r="I24">
-        <v>0.01812853567567618</v>
+        <v>0.01285697724968493</v>
       </c>
       <c r="J24">
-        <v>0.6448794248003793</v>
+        <v>0.5836156836045063</v>
       </c>
       <c r="K24">
-        <v>0.682280863026584</v>
+        <v>0.5177364371118713</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1951157851106728</v>
       </c>
       <c r="M24">
-        <v>2.28101686897898</v>
+        <v>0.1928631088119523</v>
       </c>
       <c r="N24">
-        <v>0.3372538002007843</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2601189318533876</v>
+        <v>2.434025436269394</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3738383297896775</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.254564168835909</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6624542421489537</v>
+        <v>0.5856025520069181</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04537827654623783</v>
+        <v>0.04928647323397684</v>
       </c>
       <c r="E25">
-        <v>0.134271014130543</v>
+        <v>0.1224507013551683</v>
       </c>
       <c r="F25">
-        <v>0.9968042779066479</v>
+        <v>0.8902504620819656</v>
       </c>
       <c r="G25">
-        <v>0.9158119825336115</v>
+        <v>0.7887372601794596</v>
       </c>
       <c r="H25">
-        <v>0.009810668647113142</v>
+        <v>0.007170686302074486</v>
       </c>
       <c r="I25">
-        <v>0.02413130146842857</v>
+        <v>0.01705092421656218</v>
       </c>
       <c r="J25">
-        <v>0.5937007936121006</v>
+        <v>0.5592885697165428</v>
       </c>
       <c r="K25">
-        <v>0.6667674889513187</v>
+        <v>0.5236615636911779</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2039245353062675</v>
       </c>
       <c r="M25">
-        <v>1.881493481136005</v>
+        <v>0.1879095638524504</v>
       </c>
       <c r="N25">
-        <v>0.2778026010743275</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.214287087348918</v>
+        <v>1.997405401852461</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3076851227398407</v>
       </c>
       <c r="Q25">
+        <v>0.2100055099387923</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
